--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/城市居民消费价格分类指数(上年同期=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/城市居民消费价格分类指数(上年同期=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,2449 +483,2449 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.2972451499999</v>
+        <v>98.31088391999999</v>
       </c>
       <c r="C2" t="n">
-        <v>102.6394956</v>
+        <v>99.52832451</v>
       </c>
       <c r="D2" t="n">
-        <v>104.245761299999</v>
+        <v>103.20486762</v>
       </c>
       <c r="E2" t="n">
-        <v>102.015254299999</v>
+        <v>101.8205251</v>
       </c>
       <c r="F2" t="n">
-        <v>101.818668</v>
+        <v>101.78774384</v>
       </c>
       <c r="G2" t="n">
-        <v>101.3623168</v>
+        <v>101.67617929</v>
       </c>
       <c r="H2" t="n">
-        <v>100.545635</v>
+        <v>100.73022019</v>
       </c>
       <c r="I2" t="n">
-        <v>101.502878899999</v>
+        <v>101.97564896</v>
       </c>
       <c r="J2" t="n">
-        <v>103.8545655</v>
+        <v>103.51237337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.44737838</v>
+        <v>98.2884778</v>
       </c>
       <c r="C3" t="n">
-        <v>102.8042272</v>
+        <v>99.99967687</v>
       </c>
       <c r="D3" t="n">
-        <v>104.3080068</v>
+        <v>103.16705459</v>
       </c>
       <c r="E3" t="n">
-        <v>102.0436486</v>
+        <v>102.05942666</v>
       </c>
       <c r="F3" t="n">
-        <v>101.8485726</v>
+        <v>101.72742324</v>
       </c>
       <c r="G3" t="n">
-        <v>101.4366006</v>
+        <v>101.22427822</v>
       </c>
       <c r="H3" t="n">
-        <v>100.5301627</v>
+        <v>100.58233543</v>
       </c>
       <c r="I3" t="n">
-        <v>101.4951368</v>
+        <v>101.83887986</v>
       </c>
       <c r="J3" t="n">
-        <v>103.805077</v>
+        <v>104.56878031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.64702635</v>
+        <v>97.95804511999999</v>
       </c>
       <c r="C4" t="n">
-        <v>102.9134558</v>
+        <v>100.61571271</v>
       </c>
       <c r="D4" t="n">
-        <v>104.3894397</v>
+        <v>103.27007895</v>
       </c>
       <c r="E4" t="n">
-        <v>102.0517452</v>
+        <v>102.14589093</v>
       </c>
       <c r="F4" t="n">
-        <v>101.8756571</v>
+        <v>101.71060528</v>
       </c>
       <c r="G4" t="n">
-        <v>101.5099426</v>
+        <v>101.17221598</v>
       </c>
       <c r="H4" t="n">
-        <v>100.5228999</v>
+        <v>100.53946025</v>
       </c>
       <c r="I4" t="n">
-        <v>101.45795</v>
+        <v>101.75638262</v>
       </c>
       <c r="J4" t="n">
-        <v>103.6735114</v>
+        <v>104.98104601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.31088391999999</v>
+        <v>97.84963784999999</v>
       </c>
       <c r="C5" t="n">
-        <v>99.52832451</v>
+        <v>100.89740054</v>
       </c>
       <c r="D5" t="n">
-        <v>103.20486762</v>
+        <v>103.36079865</v>
       </c>
       <c r="E5" t="n">
-        <v>101.8205251</v>
+        <v>102.18807483</v>
       </c>
       <c r="F5" t="n">
-        <v>101.78774384</v>
+        <v>101.72211531</v>
       </c>
       <c r="G5" t="n">
-        <v>101.67617929</v>
+        <v>101.140903</v>
       </c>
       <c r="H5" t="n">
-        <v>100.73022019</v>
+        <v>100.54694749</v>
       </c>
       <c r="I5" t="n">
-        <v>101.97564896</v>
+        <v>101.69009204</v>
       </c>
       <c r="J5" t="n">
-        <v>103.51237337</v>
+        <v>105.14717259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.2884778</v>
+        <v>97.73979885999999</v>
       </c>
       <c r="C6" t="n">
-        <v>99.99967687</v>
+        <v>101.18574021</v>
       </c>
       <c r="D6" t="n">
-        <v>103.16705459</v>
+        <v>103.47261812</v>
       </c>
       <c r="E6" t="n">
-        <v>102.05942666</v>
+        <v>102.15652561</v>
       </c>
       <c r="F6" t="n">
-        <v>101.72742324</v>
+        <v>101.76138222</v>
       </c>
       <c r="G6" t="n">
-        <v>101.22427822</v>
+        <v>101.12434058</v>
       </c>
       <c r="H6" t="n">
-        <v>100.58233543</v>
+        <v>100.5834778</v>
       </c>
       <c r="I6" t="n">
-        <v>101.83887986</v>
+        <v>101.65832906</v>
       </c>
       <c r="J6" t="n">
-        <v>104.56878031</v>
+        <v>105.01690272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.95804511999999</v>
+        <v>97.80267073</v>
       </c>
       <c r="C7" t="n">
-        <v>100.61571271</v>
+        <v>101.44849517</v>
       </c>
       <c r="D7" t="n">
-        <v>103.27007895</v>
+        <v>103.61556299</v>
       </c>
       <c r="E7" t="n">
-        <v>102.14589093</v>
+        <v>102.11186795</v>
       </c>
       <c r="F7" t="n">
-        <v>101.71060528</v>
+        <v>101.79356754</v>
       </c>
       <c r="G7" t="n">
-        <v>101.17221598</v>
+        <v>101.15503359</v>
       </c>
       <c r="H7" t="n">
-        <v>100.53946025</v>
+        <v>100.59467507</v>
       </c>
       <c r="I7" t="n">
-        <v>101.75638262</v>
+        <v>101.61403125</v>
       </c>
       <c r="J7" t="n">
-        <v>104.98104601</v>
+        <v>104.75315322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.84963784999999</v>
+        <v>97.88002914</v>
       </c>
       <c r="C8" t="n">
-        <v>100.89740054</v>
+        <v>101.9001256</v>
       </c>
       <c r="D8" t="n">
-        <v>103.36079865</v>
+        <v>103.81156702</v>
       </c>
       <c r="E8" t="n">
-        <v>102.18807483</v>
+        <v>102.07272134</v>
       </c>
       <c r="F8" t="n">
-        <v>101.72211531</v>
+        <v>101.81285901</v>
       </c>
       <c r="G8" t="n">
-        <v>101.140903</v>
+        <v>101.21314497</v>
       </c>
       <c r="H8" t="n">
-        <v>100.54694749</v>
+        <v>100.60074622</v>
       </c>
       <c r="I8" t="n">
-        <v>101.69009204</v>
+        <v>101.57656928</v>
       </c>
       <c r="J8" t="n">
-        <v>105.14717259</v>
+        <v>104.46139859</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97.73979885999999</v>
+        <v>97.98111778000001</v>
       </c>
       <c r="C9" t="n">
-        <v>101.18574021</v>
+        <v>102.2518225</v>
       </c>
       <c r="D9" t="n">
-        <v>103.47261812</v>
+        <v>103.96871269</v>
       </c>
       <c r="E9" t="n">
-        <v>102.15652561</v>
+        <v>101.9936983</v>
       </c>
       <c r="F9" t="n">
-        <v>101.76138222</v>
+        <v>101.80679542</v>
       </c>
       <c r="G9" t="n">
-        <v>101.12434058</v>
+        <v>101.21706885</v>
       </c>
       <c r="H9" t="n">
-        <v>100.5834778</v>
+        <v>100.58268185</v>
       </c>
       <c r="I9" t="n">
-        <v>101.65832906</v>
+        <v>101.54201955</v>
       </c>
       <c r="J9" t="n">
-        <v>105.01690272</v>
+        <v>104.08106282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.80267073</v>
+        <v>98.15845025</v>
       </c>
       <c r="C10" t="n">
-        <v>101.44849517</v>
+        <v>102.521950799999</v>
       </c>
       <c r="D10" t="n">
-        <v>103.61556299</v>
+        <v>104.094702499999</v>
       </c>
       <c r="E10" t="n">
-        <v>102.11186795</v>
+        <v>101.9962766</v>
       </c>
       <c r="F10" t="n">
-        <v>101.79356754</v>
+        <v>101.803898399999</v>
       </c>
       <c r="G10" t="n">
-        <v>101.15503359</v>
+        <v>101.2925443</v>
       </c>
       <c r="H10" t="n">
-        <v>100.59467507</v>
+        <v>100.557121899999</v>
       </c>
       <c r="I10" t="n">
-        <v>101.61403125</v>
+        <v>101.515328299999</v>
       </c>
       <c r="J10" t="n">
-        <v>104.75315322</v>
+        <v>103.9338611</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.88002914</v>
+        <v>98.2972451499999</v>
       </c>
       <c r="C11" t="n">
-        <v>101.9001256</v>
+        <v>102.6394956</v>
       </c>
       <c r="D11" t="n">
-        <v>103.81156702</v>
+        <v>104.245761299999</v>
       </c>
       <c r="E11" t="n">
-        <v>102.07272134</v>
+        <v>102.015254299999</v>
       </c>
       <c r="F11" t="n">
-        <v>101.81285901</v>
+        <v>101.818668</v>
       </c>
       <c r="G11" t="n">
-        <v>101.21314497</v>
+        <v>101.3623168</v>
       </c>
       <c r="H11" t="n">
-        <v>100.60074622</v>
+        <v>100.545635</v>
       </c>
       <c r="I11" t="n">
-        <v>101.57656928</v>
+        <v>101.502878899999</v>
       </c>
       <c r="J11" t="n">
-        <v>104.46139859</v>
+        <v>103.8545655</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97.98111778000001</v>
+        <v>98.44737838</v>
       </c>
       <c r="C12" t="n">
-        <v>102.2518225</v>
+        <v>102.8042272</v>
       </c>
       <c r="D12" t="n">
-        <v>103.96871269</v>
+        <v>104.3080068</v>
       </c>
       <c r="E12" t="n">
-        <v>101.9936983</v>
+        <v>102.0436486</v>
       </c>
       <c r="F12" t="n">
-        <v>101.80679542</v>
+        <v>101.8485726</v>
       </c>
       <c r="G12" t="n">
-        <v>101.21706885</v>
+        <v>101.4366006</v>
       </c>
       <c r="H12" t="n">
-        <v>100.58268185</v>
+        <v>100.5301627</v>
       </c>
       <c r="I12" t="n">
-        <v>101.54201955</v>
+        <v>101.4951368</v>
       </c>
       <c r="J12" t="n">
-        <v>104.08106282</v>
+        <v>103.805077</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.15845025</v>
+        <v>98.64702635</v>
       </c>
       <c r="C13" t="n">
-        <v>102.521950799999</v>
+        <v>102.9134558</v>
       </c>
       <c r="D13" t="n">
-        <v>104.094702499999</v>
+        <v>104.3894397</v>
       </c>
       <c r="E13" t="n">
-        <v>101.9962766</v>
+        <v>102.0517452</v>
       </c>
       <c r="F13" t="n">
-        <v>101.803898399999</v>
+        <v>101.8756571</v>
       </c>
       <c r="G13" t="n">
-        <v>101.2925443</v>
+        <v>101.5099426</v>
       </c>
       <c r="H13" t="n">
-        <v>100.557121899999</v>
+        <v>100.5228999</v>
       </c>
       <c r="I13" t="n">
-        <v>101.515328299999</v>
+        <v>101.45795</v>
       </c>
       <c r="J13" t="n">
-        <v>103.9338611</v>
+        <v>103.6735114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.0069875</v>
+        <v>102.2936047</v>
       </c>
       <c r="C14" t="n">
-        <v>102.5830032</v>
+        <v>104.8813294</v>
       </c>
       <c r="D14" t="n">
-        <v>106.6204083</v>
+        <v>105.740097</v>
       </c>
       <c r="E14" t="n">
-        <v>101.6173494</v>
+        <v>102.6490547</v>
       </c>
       <c r="F14" t="n">
-        <v>102.5148555</v>
+        <v>102.3266064</v>
       </c>
       <c r="G14" t="n">
-        <v>102.5000096</v>
+        <v>103.6111491</v>
       </c>
       <c r="H14" t="n">
-        <v>100.9476246</v>
+        <v>100.6303016</v>
       </c>
       <c r="I14" t="n">
-        <v>101.2607896</v>
+        <v>100.9813719</v>
       </c>
       <c r="J14" t="n">
-        <v>99.75530668</v>
+        <v>102.5432892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.0275693</v>
+        <v>101.9150858</v>
       </c>
       <c r="C15" t="n">
-        <v>102.5007554</v>
+        <v>104.06097987</v>
       </c>
       <c r="D15" t="n">
-        <v>106.7349267</v>
+        <v>105.8127061</v>
       </c>
       <c r="E15" t="n">
-        <v>101.6340216</v>
+        <v>101.75590158</v>
       </c>
       <c r="F15" t="n">
-        <v>102.5289827</v>
+        <v>102.48618582</v>
       </c>
       <c r="G15" t="n">
-        <v>102.4558307</v>
+        <v>102.61799637</v>
       </c>
       <c r="H15" t="n">
-        <v>100.9957398</v>
+        <v>100.52850794</v>
       </c>
       <c r="I15" t="n">
-        <v>101.2439984</v>
+        <v>101.08239209</v>
       </c>
       <c r="J15" t="n">
-        <v>99.78080215</v>
+        <v>100.05322559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.0338072</v>
+        <v>101.9230941</v>
       </c>
       <c r="C16" t="n">
-        <v>102.4541797</v>
+        <v>103.6776327</v>
       </c>
       <c r="D16" t="n">
-        <v>106.7880134</v>
+        <v>105.8950554</v>
       </c>
       <c r="E16" t="n">
-        <v>101.6566241</v>
+        <v>101.506097</v>
       </c>
       <c r="F16" t="n">
-        <v>102.5372101</v>
+        <v>102.4934533</v>
       </c>
       <c r="G16" t="n">
-        <v>102.4209718</v>
+        <v>102.5244922</v>
       </c>
       <c r="H16" t="n">
-        <v>101.0392007</v>
+        <v>100.5660482</v>
       </c>
       <c r="I16" t="n">
-        <v>101.2428067</v>
+        <v>101.1401744</v>
       </c>
       <c r="J16" t="n">
-        <v>99.84143066999999</v>
+        <v>99.25238890999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.2936047</v>
+        <v>101.8759983</v>
       </c>
       <c r="C17" t="n">
-        <v>104.8813294</v>
+        <v>103.6450408</v>
       </c>
       <c r="D17" t="n">
-        <v>105.740097</v>
+        <v>106.0347435</v>
       </c>
       <c r="E17" t="n">
-        <v>102.6490547</v>
+        <v>101.4526199</v>
       </c>
       <c r="F17" t="n">
-        <v>102.3266064</v>
+        <v>102.4815899</v>
       </c>
       <c r="G17" t="n">
-        <v>103.6111491</v>
+        <v>102.5531452</v>
       </c>
       <c r="H17" t="n">
-        <v>100.6303016</v>
+        <v>100.6271025</v>
       </c>
       <c r="I17" t="n">
-        <v>100.9813719</v>
+        <v>101.1849271</v>
       </c>
       <c r="J17" t="n">
-        <v>102.5432892</v>
+        <v>99.03164756</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.9150858</v>
+        <v>101.7131434</v>
       </c>
       <c r="C18" t="n">
-        <v>104.06097987</v>
+        <v>103.4886217</v>
       </c>
       <c r="D18" t="n">
-        <v>105.8127061</v>
+        <v>106.1384864</v>
       </c>
       <c r="E18" t="n">
-        <v>101.75590158</v>
+        <v>101.4943201</v>
       </c>
       <c r="F18" t="n">
-        <v>102.48618582</v>
+        <v>102.4753943</v>
       </c>
       <c r="G18" t="n">
-        <v>102.61799637</v>
+        <v>102.5628665</v>
       </c>
       <c r="H18" t="n">
-        <v>100.52850794</v>
+        <v>100.6976689</v>
       </c>
       <c r="I18" t="n">
-        <v>101.08239209</v>
+        <v>101.215454</v>
       </c>
       <c r="J18" t="n">
-        <v>100.05322559</v>
+        <v>99.19219423</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.9230941</v>
+        <v>101.4417733</v>
       </c>
       <c r="C19" t="n">
-        <v>103.6776327</v>
+        <v>103.3714754</v>
       </c>
       <c r="D19" t="n">
-        <v>105.8950554</v>
+        <v>106.1733176</v>
       </c>
       <c r="E19" t="n">
-        <v>101.506097</v>
+        <v>101.5227547</v>
       </c>
       <c r="F19" t="n">
-        <v>102.4934533</v>
+        <v>102.4782881</v>
       </c>
       <c r="G19" t="n">
-        <v>102.5244922</v>
+        <v>102.5567734</v>
       </c>
       <c r="H19" t="n">
-        <v>100.5660482</v>
+        <v>100.7543145</v>
       </c>
       <c r="I19" t="n">
-        <v>101.1401744</v>
+        <v>101.2555401</v>
       </c>
       <c r="J19" t="n">
-        <v>99.25238890999999</v>
+        <v>99.36429439</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.8759983</v>
+        <v>101.1907468</v>
       </c>
       <c r="C20" t="n">
-        <v>103.6450408</v>
+        <v>103.0597047</v>
       </c>
       <c r="D20" t="n">
-        <v>106.0347435</v>
+        <v>106.1370117</v>
       </c>
       <c r="E20" t="n">
-        <v>101.4526199</v>
+        <v>101.5228388</v>
       </c>
       <c r="F20" t="n">
-        <v>102.4815899</v>
+        <v>102.4707497</v>
       </c>
       <c r="G20" t="n">
-        <v>102.5531452</v>
+        <v>102.547296</v>
       </c>
       <c r="H20" t="n">
-        <v>100.6271025</v>
+        <v>100.800697</v>
       </c>
       <c r="I20" t="n">
-        <v>101.1849271</v>
+        <v>101.2825072</v>
       </c>
       <c r="J20" t="n">
-        <v>99.03164756</v>
+        <v>99.48820489000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.7131434</v>
+        <v>101.1217462</v>
       </c>
       <c r="C21" t="n">
-        <v>103.4886217</v>
+        <v>102.8416413</v>
       </c>
       <c r="D21" t="n">
-        <v>106.1384864</v>
+        <v>106.1844516</v>
       </c>
       <c r="E21" t="n">
-        <v>101.4943201</v>
+        <v>101.5646732</v>
       </c>
       <c r="F21" t="n">
-        <v>102.4753943</v>
+        <v>102.481853</v>
       </c>
       <c r="G21" t="n">
-        <v>102.5628665</v>
+        <v>102.5473396</v>
       </c>
       <c r="H21" t="n">
-        <v>100.6976689</v>
+        <v>100.847674</v>
       </c>
       <c r="I21" t="n">
-        <v>101.215454</v>
+        <v>101.2771937</v>
       </c>
       <c r="J21" t="n">
-        <v>99.19219423</v>
+        <v>99.64347900999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.4417733</v>
+        <v>101.0423363</v>
       </c>
       <c r="C22" t="n">
-        <v>103.3714754</v>
+        <v>102.6739428</v>
       </c>
       <c r="D22" t="n">
-        <v>106.1733176</v>
+        <v>106.4518304</v>
       </c>
       <c r="E22" t="n">
-        <v>101.5227547</v>
+        <v>101.5817575</v>
       </c>
       <c r="F22" t="n">
-        <v>102.4782881</v>
+        <v>102.4959808</v>
       </c>
       <c r="G22" t="n">
-        <v>102.5567734</v>
+        <v>102.5234112</v>
       </c>
       <c r="H22" t="n">
-        <v>100.7543145</v>
+        <v>100.8976433</v>
       </c>
       <c r="I22" t="n">
-        <v>101.2555401</v>
+        <v>101.2736988</v>
       </c>
       <c r="J22" t="n">
-        <v>99.36429439</v>
+        <v>99.66996274</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>101.1907468</v>
+        <v>101.0069875</v>
       </c>
       <c r="C23" t="n">
-        <v>103.0597047</v>
+        <v>102.5830032</v>
       </c>
       <c r="D23" t="n">
-        <v>106.1370117</v>
+        <v>106.6204083</v>
       </c>
       <c r="E23" t="n">
-        <v>101.5228388</v>
+        <v>101.6173494</v>
       </c>
       <c r="F23" t="n">
-        <v>102.4707497</v>
+        <v>102.5148555</v>
       </c>
       <c r="G23" t="n">
-        <v>102.547296</v>
+        <v>102.5000096</v>
       </c>
       <c r="H23" t="n">
-        <v>100.800697</v>
+        <v>100.9476246</v>
       </c>
       <c r="I23" t="n">
-        <v>101.2825072</v>
+        <v>101.2607896</v>
       </c>
       <c r="J23" t="n">
-        <v>99.48820489000001</v>
+        <v>99.75530668</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.1217462</v>
+        <v>101.0275693</v>
       </c>
       <c r="C24" t="n">
-        <v>102.8416413</v>
+        <v>102.5007554</v>
       </c>
       <c r="D24" t="n">
-        <v>106.1844516</v>
+        <v>106.7349267</v>
       </c>
       <c r="E24" t="n">
-        <v>101.5646732</v>
+        <v>101.6340216</v>
       </c>
       <c r="F24" t="n">
-        <v>102.481853</v>
+        <v>102.5289827</v>
       </c>
       <c r="G24" t="n">
-        <v>102.5473396</v>
+        <v>102.4558307</v>
       </c>
       <c r="H24" t="n">
-        <v>100.847674</v>
+        <v>100.9957398</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2771937</v>
+        <v>101.2439984</v>
       </c>
       <c r="J24" t="n">
-        <v>99.64347900999999</v>
+        <v>99.78080215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.0423363</v>
+        <v>101.0338072</v>
       </c>
       <c r="C25" t="n">
-        <v>102.6739428</v>
+        <v>102.4541797</v>
       </c>
       <c r="D25" t="n">
-        <v>106.4518304</v>
+        <v>106.7880134</v>
       </c>
       <c r="E25" t="n">
-        <v>101.5817575</v>
+        <v>101.6566241</v>
       </c>
       <c r="F25" t="n">
-        <v>102.4959808</v>
+        <v>102.5372101</v>
       </c>
       <c r="G25" t="n">
-        <v>102.5234112</v>
+        <v>102.4209718</v>
       </c>
       <c r="H25" t="n">
-        <v>100.8976433</v>
+        <v>101.0392007</v>
       </c>
       <c r="I25" t="n">
-        <v>101.2736988</v>
+        <v>101.2428067</v>
       </c>
       <c r="J25" t="n">
-        <v>99.66996274</v>
+        <v>99.84143066999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.86444673</v>
+        <v>100.0850941</v>
       </c>
       <c r="C26" t="n">
-        <v>101.08837278</v>
+        <v>101.2419943</v>
       </c>
       <c r="D26" t="n">
-        <v>105.04685848</v>
+        <v>106.7008447</v>
       </c>
       <c r="E26" t="n">
-        <v>102.13790546</v>
+        <v>101.4723943</v>
       </c>
       <c r="F26" t="n">
-        <v>102.12502015</v>
+        <v>102.4903243</v>
       </c>
       <c r="G26" t="n">
-        <v>102.22407555</v>
+        <v>100.5999436</v>
       </c>
       <c r="H26" t="n">
-        <v>101.55428231</v>
+        <v>101.4211847</v>
       </c>
       <c r="I26" t="n">
-        <v>101.09752476</v>
+        <v>101.3001591</v>
       </c>
       <c r="J26" t="n">
-        <v>101.98602915</v>
+        <v>100.3942549</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.83754338</v>
+        <v>100.8195115</v>
       </c>
       <c r="C27" t="n">
-        <v>101.12993375</v>
+        <v>101.3754692</v>
       </c>
       <c r="D27" t="n">
-        <v>104.81258623</v>
+        <v>106.6261453</v>
       </c>
       <c r="E27" t="n">
-        <v>102.1399702</v>
+        <v>102.2174351</v>
       </c>
       <c r="F27" t="n">
-        <v>102.12341402</v>
+        <v>102.2323638</v>
       </c>
       <c r="G27" t="n">
-        <v>102.25354796</v>
+        <v>102.327378</v>
       </c>
       <c r="H27" t="n">
-        <v>101.55398049</v>
+        <v>101.6204119</v>
       </c>
       <c r="I27" t="n">
-        <v>101.1141694</v>
+        <v>101.0909266</v>
       </c>
       <c r="J27" t="n">
-        <v>102.04445088</v>
+        <v>102.1347091</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.61790383</v>
+        <v>100.6407384</v>
       </c>
       <c r="C28" t="n">
-        <v>101.17403689</v>
+        <v>101.2915727</v>
       </c>
       <c r="D28" t="n">
-        <v>104.61620099</v>
+        <v>106.5091997</v>
       </c>
       <c r="E28" t="n">
-        <v>102.11657388</v>
+        <v>102.1786092</v>
       </c>
       <c r="F28" t="n">
-        <v>102.11062305</v>
+        <v>102.1648212</v>
       </c>
       <c r="G28" t="n">
-        <v>102.26757685</v>
+        <v>102.2705223</v>
       </c>
       <c r="H28" t="n">
-        <v>101.55218558</v>
+        <v>101.586843</v>
       </c>
       <c r="I28" t="n">
-        <v>101.14437813</v>
+        <v>101.0363261</v>
       </c>
       <c r="J28" t="n">
-        <v>102.09600852</v>
+        <v>102.2066782</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.0850941</v>
+        <v>100.7529211</v>
       </c>
       <c r="C29" t="n">
-        <v>101.2419943</v>
+        <v>101.1712678</v>
       </c>
       <c r="D29" t="n">
-        <v>106.7008447</v>
+        <v>106.2953317</v>
       </c>
       <c r="E29" t="n">
-        <v>101.4723943</v>
+        <v>102.1</v>
       </c>
       <c r="F29" t="n">
-        <v>102.4903243</v>
+        <v>102.1141297</v>
       </c>
       <c r="G29" t="n">
-        <v>100.5999436</v>
+        <v>102.2036458</v>
       </c>
       <c r="H29" t="n">
-        <v>101.4211847</v>
+        <v>101.5537277</v>
       </c>
       <c r="I29" t="n">
-        <v>101.3001591</v>
+        <v>101.013552</v>
       </c>
       <c r="J29" t="n">
-        <v>100.3942549</v>
+        <v>102.0154274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.8195115</v>
+        <v>100.9531264</v>
       </c>
       <c r="C30" t="n">
-        <v>101.3754692</v>
+        <v>101.1223279</v>
       </c>
       <c r="D30" t="n">
-        <v>106.6261453</v>
+        <v>106.1334329</v>
       </c>
       <c r="E30" t="n">
-        <v>102.2174351</v>
+        <v>102</v>
       </c>
       <c r="F30" t="n">
-        <v>102.2323638</v>
+        <v>102.0797811</v>
       </c>
       <c r="G30" t="n">
-        <v>102.327378</v>
+        <v>102.1352827</v>
       </c>
       <c r="H30" t="n">
-        <v>101.6204119</v>
+        <v>101.5281757</v>
       </c>
       <c r="I30" t="n">
-        <v>101.0909266</v>
+        <v>101.0148844</v>
       </c>
       <c r="J30" t="n">
-        <v>102.1347091</v>
+        <v>101.8138409</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.6407384</v>
+        <v>101.18568818</v>
       </c>
       <c r="C31" t="n">
-        <v>101.2915727</v>
+        <v>101.07530555</v>
       </c>
       <c r="D31" t="n">
-        <v>106.5091997</v>
+        <v>106.00230321</v>
       </c>
       <c r="E31" t="n">
-        <v>102.1786092</v>
+        <v>101.99855352</v>
       </c>
       <c r="F31" t="n">
-        <v>102.1648212</v>
+        <v>102.06094159</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2705223</v>
+        <v>102.07476882</v>
       </c>
       <c r="H31" t="n">
-        <v>101.586843</v>
+        <v>101.52050152</v>
       </c>
       <c r="I31" t="n">
-        <v>101.0363261</v>
+        <v>101.01399994</v>
       </c>
       <c r="J31" t="n">
-        <v>102.2066782</v>
+        <v>101.68976005</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.7529211</v>
+        <v>101.44043415</v>
       </c>
       <c r="C32" t="n">
-        <v>101.1712678</v>
+        <v>101.10107154</v>
       </c>
       <c r="D32" t="n">
-        <v>106.2953317</v>
+        <v>105.86163974</v>
       </c>
       <c r="E32" t="n">
-        <v>102.1</v>
+        <v>102.0098776</v>
       </c>
       <c r="F32" t="n">
-        <v>102.1141297</v>
+        <v>102.06664668</v>
       </c>
       <c r="G32" t="n">
-        <v>102.2036458</v>
+        <v>102.11883061</v>
       </c>
       <c r="H32" t="n">
-        <v>101.5537277</v>
+        <v>101.52590158</v>
       </c>
       <c r="I32" t="n">
-        <v>101.013552</v>
+        <v>101.02717133</v>
       </c>
       <c r="J32" t="n">
-        <v>102.0154274</v>
+        <v>101.62742764</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.9531264</v>
+        <v>101.58999279</v>
       </c>
       <c r="C33" t="n">
-        <v>101.1223279</v>
+        <v>101.11016728</v>
       </c>
       <c r="D33" t="n">
-        <v>106.1334329</v>
+        <v>105.695503</v>
       </c>
       <c r="E33" t="n">
-        <v>102</v>
+        <v>102.04806138</v>
       </c>
       <c r="F33" t="n">
-        <v>102.0797811</v>
+        <v>102.08794465</v>
       </c>
       <c r="G33" t="n">
-        <v>102.1352827</v>
+        <v>102.19183921</v>
       </c>
       <c r="H33" t="n">
-        <v>101.5281757</v>
+        <v>101.53623465</v>
       </c>
       <c r="I33" t="n">
-        <v>101.0148844</v>
+        <v>101.05660197</v>
       </c>
       <c r="J33" t="n">
-        <v>101.8138409</v>
+        <v>101.68030398</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.18568818</v>
+        <v>101.71780847</v>
       </c>
       <c r="C34" t="n">
-        <v>101.07530555</v>
+        <v>101.06449639</v>
       </c>
       <c r="D34" t="n">
-        <v>106.00230321</v>
+        <v>105.33611462</v>
       </c>
       <c r="E34" t="n">
-        <v>101.99855352</v>
+        <v>102.09297693</v>
       </c>
       <c r="F34" t="n">
-        <v>102.06094159</v>
+        <v>102.11143334</v>
       </c>
       <c r="G34" t="n">
-        <v>102.07476882</v>
+        <v>102.18725598</v>
       </c>
       <c r="H34" t="n">
-        <v>101.52050152</v>
+        <v>101.55151883</v>
       </c>
       <c r="I34" t="n">
-        <v>101.01399994</v>
+        <v>101.06423272</v>
       </c>
       <c r="J34" t="n">
-        <v>101.68976005</v>
+        <v>101.856148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101.44043415</v>
+        <v>101.86444673</v>
       </c>
       <c r="C35" t="n">
-        <v>101.10107154</v>
+        <v>101.08837278</v>
       </c>
       <c r="D35" t="n">
-        <v>105.86163974</v>
+        <v>105.04685848</v>
       </c>
       <c r="E35" t="n">
-        <v>102.0098776</v>
+        <v>102.13790546</v>
       </c>
       <c r="F35" t="n">
-        <v>102.06664668</v>
+        <v>102.12502015</v>
       </c>
       <c r="G35" t="n">
-        <v>102.11883061</v>
+        <v>102.22407555</v>
       </c>
       <c r="H35" t="n">
-        <v>101.52590158</v>
+        <v>101.55428231</v>
       </c>
       <c r="I35" t="n">
-        <v>101.02717133</v>
+        <v>101.09752476</v>
       </c>
       <c r="J35" t="n">
-        <v>101.62742764</v>
+        <v>101.98602915</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.58999279</v>
+        <v>101.83754338</v>
       </c>
       <c r="C36" t="n">
-        <v>101.11016728</v>
+        <v>101.12993375</v>
       </c>
       <c r="D36" t="n">
-        <v>105.695503</v>
+        <v>104.81258623</v>
       </c>
       <c r="E36" t="n">
-        <v>102.04806138</v>
+        <v>102.1399702</v>
       </c>
       <c r="F36" t="n">
-        <v>102.08794465</v>
+        <v>102.12341402</v>
       </c>
       <c r="G36" t="n">
-        <v>102.19183921</v>
+        <v>102.25354796</v>
       </c>
       <c r="H36" t="n">
-        <v>101.53623465</v>
+        <v>101.55398049</v>
       </c>
       <c r="I36" t="n">
-        <v>101.05660197</v>
+        <v>101.1141694</v>
       </c>
       <c r="J36" t="n">
-        <v>101.68030398</v>
+        <v>102.04445088</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.71780847</v>
+        <v>101.61790383</v>
       </c>
       <c r="C37" t="n">
-        <v>101.06449639</v>
+        <v>101.17403689</v>
       </c>
       <c r="D37" t="n">
-        <v>105.33611462</v>
+        <v>104.61620099</v>
       </c>
       <c r="E37" t="n">
-        <v>102.09297693</v>
+        <v>102.11657388</v>
       </c>
       <c r="F37" t="n">
-        <v>102.11143334</v>
+        <v>102.11062305</v>
       </c>
       <c r="G37" t="n">
-        <v>102.18725598</v>
+        <v>102.26757685</v>
       </c>
       <c r="H37" t="n">
-        <v>101.55151883</v>
+        <v>101.55218558</v>
       </c>
       <c r="I37" t="n">
-        <v>101.06423272</v>
+        <v>101.14437813</v>
       </c>
       <c r="J37" t="n">
-        <v>101.856148</v>
+        <v>102.09600852</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.24997887000001</v>
+        <v>98.67510761</v>
       </c>
       <c r="C38" t="n">
-        <v>103.32027847</v>
+        <v>102.22734757</v>
       </c>
       <c r="D38" t="n">
-        <v>102.59869081</v>
+        <v>102.66627046</v>
       </c>
       <c r="E38" t="n">
-        <v>102.52568853</v>
+        <v>101.76377858</v>
       </c>
       <c r="F38" t="n">
-        <v>101.47495375</v>
+        <v>101.83615665</v>
       </c>
       <c r="G38" t="n">
-        <v>102.41545663</v>
+        <v>103.04570837</v>
       </c>
       <c r="H38" t="n">
-        <v>100.99041055</v>
+        <v>101.64037219</v>
       </c>
       <c r="I38" t="n">
-        <v>101.78665349</v>
+        <v>101.60047564</v>
       </c>
       <c r="J38" t="n">
-        <v>105.53222594</v>
+        <v>102.23464488</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.1488968</v>
+        <v>98.68193598000001</v>
       </c>
       <c r="C39" t="n">
-        <v>103.43716341</v>
+        <v>102.1415577</v>
       </c>
       <c r="D39" t="n">
-        <v>102.55802054</v>
+        <v>102.71619087</v>
       </c>
       <c r="E39" t="n">
-        <v>102.67617428</v>
+        <v>101.64061737</v>
       </c>
       <c r="F39" t="n">
-        <v>101.38546967</v>
+        <v>101.93411003</v>
       </c>
       <c r="G39" t="n">
-        <v>102.36201689</v>
+        <v>102.71098764</v>
       </c>
       <c r="H39" t="n">
-        <v>100.9369419</v>
+        <v>101.4959277</v>
       </c>
       <c r="I39" t="n">
-        <v>101.73877225</v>
+        <v>101.80395672</v>
       </c>
       <c r="J39" t="n">
-        <v>106.20289734</v>
+        <v>101.83751654</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.23407226</v>
+        <v>99.10998159</v>
       </c>
       <c r="C40" t="n">
-        <v>103.52709975</v>
+        <v>102.08965739</v>
       </c>
       <c r="D40" t="n">
-        <v>102.52686594</v>
+        <v>102.71086556</v>
       </c>
       <c r="E40" t="n">
-        <v>102.80168131</v>
+        <v>101.85448968</v>
       </c>
       <c r="F40" t="n">
-        <v>101.31817703</v>
+        <v>101.91799004</v>
       </c>
       <c r="G40" t="n">
-        <v>102.32427807</v>
+        <v>102.64482248</v>
       </c>
       <c r="H40" t="n">
-        <v>100.88759474</v>
+        <v>101.41095359</v>
       </c>
       <c r="I40" t="n">
-        <v>101.67401914</v>
+        <v>101.88180176</v>
       </c>
       <c r="J40" t="n">
-        <v>106.68729755</v>
+        <v>102.42850236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.67510761</v>
+        <v>99.1782868</v>
       </c>
       <c r="C41" t="n">
-        <v>102.22734757</v>
+        <v>102.05263282</v>
       </c>
       <c r="D41" t="n">
-        <v>102.66627046</v>
+        <v>102.68491066</v>
       </c>
       <c r="E41" t="n">
-        <v>101.76377858</v>
+        <v>102.01676336</v>
       </c>
       <c r="F41" t="n">
-        <v>101.83615665</v>
+        <v>101.90241624</v>
       </c>
       <c r="G41" t="n">
-        <v>103.04570837</v>
+        <v>102.64370634</v>
       </c>
       <c r="H41" t="n">
-        <v>101.64037219</v>
+        <v>101.34633269</v>
       </c>
       <c r="I41" t="n">
-        <v>101.60047564</v>
+        <v>101.88242828</v>
       </c>
       <c r="J41" t="n">
-        <v>102.23464488</v>
+        <v>102.99186258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.68193598000001</v>
+        <v>99.14434632</v>
       </c>
       <c r="C42" t="n">
-        <v>102.1415577</v>
+        <v>102.07571368</v>
       </c>
       <c r="D42" t="n">
-        <v>102.71619087</v>
+        <v>102.6577063</v>
       </c>
       <c r="E42" t="n">
-        <v>101.64061737</v>
+        <v>102.15544738</v>
       </c>
       <c r="F42" t="n">
-        <v>101.93411003</v>
+        <v>101.86707168</v>
       </c>
       <c r="G42" t="n">
-        <v>102.71098764</v>
+        <v>102.66124001</v>
       </c>
       <c r="H42" t="n">
-        <v>101.4959277</v>
+        <v>101.28025508</v>
       </c>
       <c r="I42" t="n">
-        <v>101.80395672</v>
+        <v>101.8671993</v>
       </c>
       <c r="J42" t="n">
-        <v>101.83751654</v>
+        <v>103.52667473</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.10998159</v>
+        <v>98.95548284</v>
       </c>
       <c r="C43" t="n">
-        <v>102.08965739</v>
+        <v>102.19823947</v>
       </c>
       <c r="D43" t="n">
-        <v>102.71086556</v>
+        <v>102.66311786</v>
       </c>
       <c r="E43" t="n">
-        <v>101.85448968</v>
+        <v>102.24028499</v>
       </c>
       <c r="F43" t="n">
-        <v>101.91799004</v>
+        <v>101.81641008</v>
       </c>
       <c r="G43" t="n">
-        <v>102.64482248</v>
+        <v>102.63793997</v>
       </c>
       <c r="H43" t="n">
-        <v>101.41095359</v>
+        <v>101.20566145</v>
       </c>
       <c r="I43" t="n">
-        <v>101.88180176</v>
+        <v>101.87222384</v>
       </c>
       <c r="J43" t="n">
-        <v>102.42850236</v>
+        <v>103.94749241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.1782868</v>
+        <v>98.78615885000001</v>
       </c>
       <c r="C44" t="n">
-        <v>102.05263282</v>
+        <v>102.37873549</v>
       </c>
       <c r="D44" t="n">
-        <v>102.68491066</v>
+        <v>102.68406991</v>
       </c>
       <c r="E44" t="n">
-        <v>102.01676336</v>
+        <v>102.3115793</v>
       </c>
       <c r="F44" t="n">
-        <v>101.90241624</v>
+        <v>101.76169798</v>
       </c>
       <c r="G44" t="n">
-        <v>102.64370634</v>
+        <v>102.59437066</v>
       </c>
       <c r="H44" t="n">
-        <v>101.34633269</v>
+        <v>101.15243627</v>
       </c>
       <c r="I44" t="n">
-        <v>101.88242828</v>
+        <v>101.86993075</v>
       </c>
       <c r="J44" t="n">
-        <v>102.99186258</v>
+        <v>104.31238622</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.14434632</v>
+        <v>98.63704686</v>
       </c>
       <c r="C45" t="n">
-        <v>102.07571368</v>
+        <v>102.68453478</v>
       </c>
       <c r="D45" t="n">
-        <v>102.6577063</v>
+        <v>102.66686726</v>
       </c>
       <c r="E45" t="n">
-        <v>102.15544738</v>
+        <v>102.36687538</v>
       </c>
       <c r="F45" t="n">
-        <v>101.86707168</v>
+        <v>101.67543431</v>
       </c>
       <c r="G45" t="n">
-        <v>102.66124001</v>
+        <v>102.5423428</v>
       </c>
       <c r="H45" t="n">
-        <v>101.28025508</v>
+        <v>101.09506334</v>
       </c>
       <c r="I45" t="n">
-        <v>101.8671993</v>
+        <v>101.84843205</v>
       </c>
       <c r="J45" t="n">
-        <v>103.52667473</v>
+        <v>104.63995392</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.95548284</v>
+        <v>98.45209895000001</v>
       </c>
       <c r="C46" t="n">
-        <v>102.19823947</v>
+        <v>103.05280455</v>
       </c>
       <c r="D46" t="n">
-        <v>102.66311786</v>
+        <v>102.63485646</v>
       </c>
       <c r="E46" t="n">
-        <v>102.24028499</v>
+        <v>102.41906477</v>
       </c>
       <c r="F46" t="n">
-        <v>101.81641008</v>
+        <v>101.57308177</v>
       </c>
       <c r="G46" t="n">
-        <v>102.63793997</v>
+        <v>102.45974317</v>
       </c>
       <c r="H46" t="n">
-        <v>101.20566145</v>
+        <v>101.03595996</v>
       </c>
       <c r="I46" t="n">
-        <v>101.87222384</v>
+        <v>101.84059162</v>
       </c>
       <c r="J46" t="n">
-        <v>103.94749241</v>
+        <v>104.98637604</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.78615885000001</v>
+        <v>98.24997887000001</v>
       </c>
       <c r="C47" t="n">
-        <v>102.37873549</v>
+        <v>103.32027847</v>
       </c>
       <c r="D47" t="n">
-        <v>102.68406991</v>
+        <v>102.59869081</v>
       </c>
       <c r="E47" t="n">
-        <v>102.3115793</v>
+        <v>102.52568853</v>
       </c>
       <c r="F47" t="n">
-        <v>101.76169798</v>
+        <v>101.47495375</v>
       </c>
       <c r="G47" t="n">
-        <v>102.59437066</v>
+        <v>102.41545663</v>
       </c>
       <c r="H47" t="n">
-        <v>101.15243627</v>
+        <v>100.99041055</v>
       </c>
       <c r="I47" t="n">
-        <v>101.86993075</v>
+        <v>101.78665349</v>
       </c>
       <c r="J47" t="n">
-        <v>104.31238622</v>
+        <v>105.53222594</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98.63704686</v>
+        <v>98.1488968</v>
       </c>
       <c r="C48" t="n">
-        <v>102.68453478</v>
+        <v>103.43716341</v>
       </c>
       <c r="D48" t="n">
-        <v>102.66686726</v>
+        <v>102.55802054</v>
       </c>
       <c r="E48" t="n">
-        <v>102.36687538</v>
+        <v>102.67617428</v>
       </c>
       <c r="F48" t="n">
-        <v>101.67543431</v>
+        <v>101.38546967</v>
       </c>
       <c r="G48" t="n">
-        <v>102.5423428</v>
+        <v>102.36201689</v>
       </c>
       <c r="H48" t="n">
-        <v>101.09506334</v>
+        <v>100.9369419</v>
       </c>
       <c r="I48" t="n">
-        <v>101.84843205</v>
+        <v>101.73877225</v>
       </c>
       <c r="J48" t="n">
-        <v>104.63995392</v>
+        <v>106.20289734</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>98.45209895000001</v>
+        <v>98.23407226</v>
       </c>
       <c r="C49" t="n">
-        <v>103.05280455</v>
+        <v>103.52709975</v>
       </c>
       <c r="D49" t="n">
-        <v>102.63485646</v>
+        <v>102.52686594</v>
       </c>
       <c r="E49" t="n">
-        <v>102.41906477</v>
+        <v>102.80168131</v>
       </c>
       <c r="F49" t="n">
-        <v>101.57308177</v>
+        <v>101.31817703</v>
       </c>
       <c r="G49" t="n">
-        <v>102.45974317</v>
+        <v>102.32427807</v>
       </c>
       <c r="H49" t="n">
-        <v>101.03595996</v>
+        <v>100.88759474</v>
       </c>
       <c r="I49" t="n">
-        <v>101.84059162</v>
+        <v>101.67401914</v>
       </c>
       <c r="J49" t="n">
-        <v>104.98637604</v>
+        <v>106.68729755</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>96.40000000000001</v>
+        <v>100.81944853</v>
       </c>
       <c r="C50" t="n">
-        <v>104.8</v>
+        <v>104.95920322</v>
       </c>
       <c r="D50" t="n">
-        <v>101.8</v>
+        <v>102.41155116</v>
       </c>
       <c r="E50" t="n">
-        <v>102.8</v>
+        <v>105.09360886</v>
       </c>
       <c r="F50" t="n">
-        <v>99.7</v>
+        <v>100.56296843</v>
       </c>
       <c r="G50" t="n">
-        <v>101.5</v>
+        <v>102.45987668</v>
       </c>
       <c r="H50" t="n">
-        <v>100.1</v>
+        <v>100.22524899</v>
       </c>
       <c r="I50" t="n">
-        <v>99.8</v>
+        <v>100.67856029</v>
       </c>
       <c r="J50" t="n">
-        <v>109.4</v>
+        <v>114.15874358</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>96.40000000000001</v>
+        <v>99.56024082</v>
       </c>
       <c r="C51" t="n">
-        <v>104.6</v>
+        <v>104.77594041</v>
       </c>
       <c r="D51" t="n">
-        <v>101.8</v>
+        <v>102.33057943</v>
       </c>
       <c r="E51" t="n">
-        <v>102.5</v>
+        <v>104.95129233</v>
       </c>
       <c r="F51" t="n">
-        <v>99.59999999999999</v>
+        <v>100.43846034</v>
       </c>
       <c r="G51" t="n">
-        <v>101.4</v>
+        <v>101.69905215</v>
       </c>
       <c r="H51" t="n">
-        <v>100.1</v>
+        <v>100.1476417</v>
       </c>
       <c r="I51" t="n">
-        <v>99.8</v>
+        <v>100.62919026</v>
       </c>
       <c r="J51" t="n">
-        <v>108.5</v>
+        <v>114.54714912</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>96.40000000000001</v>
+        <v>98.39322524000001</v>
       </c>
       <c r="C52" t="n">
-        <v>104.4</v>
+        <v>105.01505552</v>
       </c>
       <c r="D52" t="n">
-        <v>101.7</v>
+        <v>102.30854722</v>
       </c>
       <c r="E52" t="n">
-        <v>102.3</v>
+        <v>104.61774055</v>
       </c>
       <c r="F52" t="n">
-        <v>99.59999999999999</v>
+        <v>100.27493688</v>
       </c>
       <c r="G52" t="n">
-        <v>101.4</v>
+        <v>102.09402329</v>
       </c>
       <c r="H52" t="n">
-        <v>100.1</v>
+        <v>100.20985146</v>
       </c>
       <c r="I52" t="n">
-        <v>99.8</v>
+        <v>100.32314104</v>
       </c>
       <c r="J52" t="n">
-        <v>107.8</v>
+        <v>113.87642719</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.81944853</v>
+        <v>97.51964058</v>
       </c>
       <c r="C53" t="n">
-        <v>104.95920322</v>
+        <v>104.97250893</v>
       </c>
       <c r="D53" t="n">
-        <v>102.41155116</v>
+        <v>102.3027838</v>
       </c>
       <c r="E53" t="n">
-        <v>105.09360886</v>
+        <v>104.22510954</v>
       </c>
       <c r="F53" t="n">
-        <v>100.56296843</v>
+        <v>100.14415073</v>
       </c>
       <c r="G53" t="n">
-        <v>102.45987668</v>
+        <v>102.12959203</v>
       </c>
       <c r="H53" t="n">
-        <v>100.22524899</v>
+        <v>100.19829755</v>
       </c>
       <c r="I53" t="n">
-        <v>100.67856029</v>
+        <v>100.15529649</v>
       </c>
       <c r="J53" t="n">
-        <v>114.15874358</v>
+        <v>113.02788841</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.56024082</v>
+        <v>96.97787778999999</v>
       </c>
       <c r="C54" t="n">
-        <v>104.77594041</v>
+        <v>105.04610068</v>
       </c>
       <c r="D54" t="n">
-        <v>102.33057943</v>
+        <v>102.25162548</v>
       </c>
       <c r="E54" t="n">
-        <v>104.95129233</v>
+        <v>103.83019783</v>
       </c>
       <c r="F54" t="n">
-        <v>100.43846034</v>
+        <v>100.044036</v>
       </c>
       <c r="G54" t="n">
-        <v>101.69905215</v>
+        <v>102.19845749</v>
       </c>
       <c r="H54" t="n">
-        <v>100.1476417</v>
+        <v>100.19124352</v>
       </c>
       <c r="I54" t="n">
-        <v>100.62919026</v>
+        <v>100.06418995</v>
       </c>
       <c r="J54" t="n">
-        <v>114.54714912</v>
+        <v>111.98239201</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.39322524000001</v>
+        <v>96.68888332</v>
       </c>
       <c r="C55" t="n">
-        <v>105.01505552</v>
+        <v>105.05866178</v>
       </c>
       <c r="D55" t="n">
-        <v>102.30854722</v>
+        <v>102.15986563</v>
       </c>
       <c r="E55" t="n">
-        <v>104.61774055</v>
+        <v>103.56609919</v>
       </c>
       <c r="F55" t="n">
-        <v>100.27493688</v>
+        <v>99.9418307</v>
       </c>
       <c r="G55" t="n">
-        <v>102.09402329</v>
+        <v>102.17985315</v>
       </c>
       <c r="H55" t="n">
-        <v>100.20985146</v>
+        <v>100.1761832</v>
       </c>
       <c r="I55" t="n">
-        <v>100.32314104</v>
+        <v>99.98628708</v>
       </c>
       <c r="J55" t="n">
-        <v>113.87642719</v>
+        <v>111.33162491</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>97.51964058</v>
+        <v>96.51035258</v>
       </c>
       <c r="C56" t="n">
-        <v>104.97250893</v>
+        <v>105.06930913</v>
       </c>
       <c r="D56" t="n">
-        <v>102.3027838</v>
+        <v>102.05329509</v>
       </c>
       <c r="E56" t="n">
-        <v>104.22510954</v>
+        <v>103.39499996</v>
       </c>
       <c r="F56" t="n">
-        <v>100.14415073</v>
+        <v>99.84594920000001</v>
       </c>
       <c r="G56" t="n">
-        <v>102.12959203</v>
+        <v>101.89058752</v>
       </c>
       <c r="H56" t="n">
-        <v>100.19829755</v>
+        <v>100.1511922</v>
       </c>
       <c r="I56" t="n">
-        <v>100.15529649</v>
+        <v>99.91225977000001</v>
       </c>
       <c r="J56" t="n">
-        <v>113.02788841</v>
+        <v>111.05493298</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>96.97787778999999</v>
+        <v>96.43903564</v>
       </c>
       <c r="C57" t="n">
-        <v>105.04610068</v>
+        <v>105.22319403</v>
       </c>
       <c r="D57" t="n">
-        <v>102.25162548</v>
+        <v>101.96106731</v>
       </c>
       <c r="E57" t="n">
-        <v>103.83019783</v>
+        <v>103.23455369</v>
       </c>
       <c r="F57" t="n">
-        <v>100.044036</v>
+        <v>99.76916423999999</v>
       </c>
       <c r="G57" t="n">
-        <v>102.19845749</v>
+        <v>101.62372112</v>
       </c>
       <c r="H57" t="n">
-        <v>100.19124352</v>
+        <v>100.13262965</v>
       </c>
       <c r="I57" t="n">
-        <v>100.06418995</v>
+        <v>99.86305589</v>
       </c>
       <c r="J57" t="n">
-        <v>111.98239201</v>
+        <v>110.70497551</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>96.68888332</v>
+        <v>96.42149646</v>
       </c>
       <c r="C58" t="n">
-        <v>105.05866178</v>
+        <v>105.10625275</v>
       </c>
       <c r="D58" t="n">
-        <v>102.15986563</v>
+        <v>101.88433277</v>
       </c>
       <c r="E58" t="n">
-        <v>103.56609919</v>
+        <v>103.05087188</v>
       </c>
       <c r="F58" t="n">
-        <v>99.9418307</v>
+        <v>99.70591659</v>
       </c>
       <c r="G58" t="n">
-        <v>102.17985315</v>
+        <v>101.50199715</v>
       </c>
       <c r="H58" t="n">
-        <v>100.1761832</v>
+        <v>100.10978527</v>
       </c>
       <c r="I58" t="n">
-        <v>99.98628708</v>
+        <v>99.83060868</v>
       </c>
       <c r="J58" t="n">
-        <v>111.33162491</v>
+        <v>110.19818821</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>96.51035258</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>105.06930913</v>
+        <v>104.8</v>
       </c>
       <c r="D59" t="n">
-        <v>102.05329509</v>
+        <v>101.8</v>
       </c>
       <c r="E59" t="n">
-        <v>103.39499996</v>
+        <v>102.8</v>
       </c>
       <c r="F59" t="n">
-        <v>99.84594920000001</v>
+        <v>99.7</v>
       </c>
       <c r="G59" t="n">
-        <v>101.89058752</v>
+        <v>101.5</v>
       </c>
       <c r="H59" t="n">
-        <v>100.1511922</v>
+        <v>100.1</v>
       </c>
       <c r="I59" t="n">
-        <v>99.91225977000001</v>
+        <v>99.8</v>
       </c>
       <c r="J59" t="n">
-        <v>111.05493298</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>96.43903564</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>105.22319403</v>
+        <v>104.6</v>
       </c>
       <c r="D60" t="n">
-        <v>101.96106731</v>
+        <v>101.8</v>
       </c>
       <c r="E60" t="n">
-        <v>103.23455369</v>
+        <v>102.5</v>
       </c>
       <c r="F60" t="n">
-        <v>99.76916423999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>101.62372112</v>
+        <v>101.4</v>
       </c>
       <c r="H60" t="n">
-        <v>100.13262965</v>
+        <v>100.1</v>
       </c>
       <c r="I60" t="n">
-        <v>99.86305589</v>
+        <v>99.8</v>
       </c>
       <c r="J60" t="n">
-        <v>110.70497551</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>96.42149646</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>105.10625275</v>
+        <v>104.4</v>
       </c>
       <c r="D61" t="n">
-        <v>101.88433277</v>
+        <v>101.7</v>
       </c>
       <c r="E61" t="n">
-        <v>103.05087188</v>
+        <v>102.3</v>
       </c>
       <c r="F61" t="n">
-        <v>99.70591659</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>101.50199715</v>
+        <v>101.4</v>
       </c>
       <c r="H61" t="n">
-        <v>100.10978527</v>
+        <v>100.1</v>
       </c>
       <c r="I61" t="n">
-        <v>99.83060868</v>
+        <v>99.8</v>
       </c>
       <c r="J61" t="n">
-        <v>110.19818821</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>103.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="D62" t="n">
         <v>100.3</v>
       </c>
       <c r="E62" t="n">
-        <v>100.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>100.6</v>
+        <v>99.5</v>
       </c>
       <c r="G62" t="n">
-        <v>101.7</v>
+        <v>99.7</v>
       </c>
       <c r="H62" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="I62" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>99.8</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>104.1</v>
+        <v>96.5</v>
       </c>
       <c r="C63" t="n">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="D63" t="n">
         <v>100.3</v>
       </c>
       <c r="E63" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G63" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I63" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J63" t="n">
         <v>100.9</v>
-      </c>
-      <c r="F63" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G63" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="H63" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I63" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>104.2</v>
+        <v>98.5</v>
       </c>
       <c r="C64" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="D64" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E64" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>100.8</v>
+        <v>99.8</v>
       </c>
       <c r="G64" t="n">
-        <v>102</v>
+        <v>100.1</v>
       </c>
       <c r="H64" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>100</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>95.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C65" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="D65" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E65" t="n">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="F65" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="H65" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I65" t="n">
         <v>100</v>
       </c>
-      <c r="I65" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="J65" t="n">
-        <v>101.4</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>96.5</v>
+        <v>101.2</v>
       </c>
       <c r="C66" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E66" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="F66" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="G66" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="H66" t="n">
         <v>100.1</v>
       </c>
-      <c r="H66" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="I66" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="J66" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>98.5</v>
+        <v>102</v>
       </c>
       <c r="C67" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D67" t="n">
         <v>100.2</v>
       </c>
       <c r="E67" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="F67" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="G67" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="H67" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I67" t="n">
         <v>100.1</v>
       </c>
-      <c r="H67" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I67" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="J67" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.1</v>
+        <v>102.7</v>
       </c>
       <c r="C68" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D68" t="n">
         <v>100.2</v>
       </c>
       <c r="E68" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="H68" t="n">
         <v>100.2</v>
       </c>
-      <c r="F68" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G68" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="H68" t="n">
-        <v>100.1</v>
-      </c>
       <c r="I68" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="J68" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>101.2</v>
+        <v>103.1</v>
       </c>
       <c r="C69" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D69" t="n">
         <v>100.2</v>
       </c>
       <c r="E69" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F69" t="n">
         <v>100.4</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J69" t="n">
         <v>100.1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="H69" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>100.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>102</v>
+        <v>103.4</v>
       </c>
       <c r="C70" t="n">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D70" t="n">
         <v>100.2</v>
       </c>
       <c r="E70" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="F70" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="G70" t="n">
-        <v>100.8</v>
+        <v>101.6</v>
       </c>
       <c r="H70" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I70" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="J70" t="n">
-        <v>100.6</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>102.7</v>
+        <v>103.8</v>
       </c>
       <c r="C71" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D71" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E71" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F71" t="n">
         <v>100.6</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H71" t="n">
         <v>100.3</v>
       </c>
-      <c r="G71" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>100.2</v>
-      </c>
       <c r="I71" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="J71" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>103.1</v>
+        <v>104.1</v>
       </c>
       <c r="C72" t="n">
         <v>98.5</v>
       </c>
       <c r="D72" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E72" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F72" t="n">
         <v>100.7</v>
       </c>
-      <c r="F72" t="n">
-        <v>100.4</v>
-      </c>
       <c r="G72" t="n">
-        <v>101.3</v>
+        <v>101.9</v>
       </c>
       <c r="H72" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I72" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="J72" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>103.4</v>
+        <v>104.2</v>
       </c>
       <c r="C73" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E73" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="F73" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="G73" t="n">
-        <v>101.6</v>
+        <v>102</v>
       </c>
       <c r="H73" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="I73" t="n">
         <v>100.3</v>
       </c>
       <c r="J73" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/城市居民消费价格分类指数(上年同期=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/城市居民消费价格分类指数(上年同期=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,2449 +483,3095 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.31088391999999</v>
+        <v>98.2972451499999</v>
       </c>
       <c r="C2" t="n">
-        <v>99.52832451</v>
+        <v>102.6394956</v>
       </c>
       <c r="D2" t="n">
-        <v>103.20486762</v>
+        <v>104.245761299999</v>
       </c>
       <c r="E2" t="n">
-        <v>101.8205251</v>
+        <v>102.015254299999</v>
       </c>
       <c r="F2" t="n">
-        <v>101.78774384</v>
+        <v>101.818668</v>
       </c>
       <c r="G2" t="n">
-        <v>101.67617929</v>
+        <v>101.3623168</v>
       </c>
       <c r="H2" t="n">
-        <v>100.73022019</v>
+        <v>100.545635</v>
       </c>
       <c r="I2" t="n">
-        <v>101.97564896</v>
+        <v>101.502878899999</v>
       </c>
       <c r="J2" t="n">
-        <v>103.51237337</v>
+        <v>103.8545655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.2884778</v>
+        <v>98.44737838</v>
       </c>
       <c r="C3" t="n">
-        <v>99.99967687</v>
+        <v>102.8042272</v>
       </c>
       <c r="D3" t="n">
-        <v>103.16705459</v>
+        <v>104.3080068</v>
       </c>
       <c r="E3" t="n">
-        <v>102.05942666</v>
+        <v>102.0436486</v>
       </c>
       <c r="F3" t="n">
-        <v>101.72742324</v>
+        <v>101.8485726</v>
       </c>
       <c r="G3" t="n">
-        <v>101.22427822</v>
+        <v>101.4366006</v>
       </c>
       <c r="H3" t="n">
-        <v>100.58233543</v>
+        <v>100.5301627</v>
       </c>
       <c r="I3" t="n">
-        <v>101.83887986</v>
+        <v>101.4951368</v>
       </c>
       <c r="J3" t="n">
-        <v>104.56878031</v>
+        <v>103.805077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.95804511999999</v>
+        <v>98.64702635</v>
       </c>
       <c r="C4" t="n">
-        <v>100.61571271</v>
+        <v>102.9134558</v>
       </c>
       <c r="D4" t="n">
-        <v>103.27007895</v>
+        <v>104.3894397</v>
       </c>
       <c r="E4" t="n">
-        <v>102.14589093</v>
+        <v>102.0517452</v>
       </c>
       <c r="F4" t="n">
-        <v>101.71060528</v>
+        <v>101.8756571</v>
       </c>
       <c r="G4" t="n">
-        <v>101.17221598</v>
+        <v>101.5099426</v>
       </c>
       <c r="H4" t="n">
-        <v>100.53946025</v>
+        <v>100.5228999</v>
       </c>
       <c r="I4" t="n">
-        <v>101.75638262</v>
+        <v>101.45795</v>
       </c>
       <c r="J4" t="n">
-        <v>104.98104601</v>
+        <v>103.6735114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.84963784999999</v>
+        <v>98.31088391999999</v>
       </c>
       <c r="C5" t="n">
-        <v>100.89740054</v>
+        <v>99.52832451</v>
       </c>
       <c r="D5" t="n">
-        <v>103.36079865</v>
+        <v>103.20486762</v>
       </c>
       <c r="E5" t="n">
-        <v>102.18807483</v>
+        <v>101.8205251</v>
       </c>
       <c r="F5" t="n">
-        <v>101.72211531</v>
+        <v>101.78774384</v>
       </c>
       <c r="G5" t="n">
-        <v>101.140903</v>
+        <v>101.67617929</v>
       </c>
       <c r="H5" t="n">
-        <v>100.54694749</v>
+        <v>100.73022019</v>
       </c>
       <c r="I5" t="n">
-        <v>101.69009204</v>
+        <v>101.97564896</v>
       </c>
       <c r="J5" t="n">
-        <v>105.14717259</v>
+        <v>103.51237337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.73979885999999</v>
+        <v>98.2884778</v>
       </c>
       <c r="C6" t="n">
-        <v>101.18574021</v>
+        <v>99.99967687</v>
       </c>
       <c r="D6" t="n">
-        <v>103.47261812</v>
+        <v>103.16705459</v>
       </c>
       <c r="E6" t="n">
-        <v>102.15652561</v>
+        <v>102.05942666</v>
       </c>
       <c r="F6" t="n">
-        <v>101.76138222</v>
+        <v>101.72742324</v>
       </c>
       <c r="G6" t="n">
-        <v>101.12434058</v>
+        <v>101.22427822</v>
       </c>
       <c r="H6" t="n">
-        <v>100.5834778</v>
+        <v>100.58233543</v>
       </c>
       <c r="I6" t="n">
-        <v>101.65832906</v>
+        <v>101.83887986</v>
       </c>
       <c r="J6" t="n">
-        <v>105.01690272</v>
+        <v>104.56878031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.80267073</v>
+        <v>97.95804511999999</v>
       </c>
       <c r="C7" t="n">
-        <v>101.44849517</v>
+        <v>100.61571271</v>
       </c>
       <c r="D7" t="n">
-        <v>103.61556299</v>
+        <v>103.27007895</v>
       </c>
       <c r="E7" t="n">
-        <v>102.11186795</v>
+        <v>102.14589093</v>
       </c>
       <c r="F7" t="n">
-        <v>101.79356754</v>
+        <v>101.71060528</v>
       </c>
       <c r="G7" t="n">
-        <v>101.15503359</v>
+        <v>101.17221598</v>
       </c>
       <c r="H7" t="n">
-        <v>100.59467507</v>
+        <v>100.53946025</v>
       </c>
       <c r="I7" t="n">
-        <v>101.61403125</v>
+        <v>101.75638262</v>
       </c>
       <c r="J7" t="n">
-        <v>104.75315322</v>
+        <v>104.98104601</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.88002914</v>
+        <v>97.84963784999999</v>
       </c>
       <c r="C8" t="n">
-        <v>101.9001256</v>
+        <v>100.89740054</v>
       </c>
       <c r="D8" t="n">
-        <v>103.81156702</v>
+        <v>103.36079865</v>
       </c>
       <c r="E8" t="n">
-        <v>102.07272134</v>
+        <v>102.18807483</v>
       </c>
       <c r="F8" t="n">
-        <v>101.81285901</v>
+        <v>101.72211531</v>
       </c>
       <c r="G8" t="n">
-        <v>101.21314497</v>
+        <v>101.140903</v>
       </c>
       <c r="H8" t="n">
-        <v>100.60074622</v>
+        <v>100.54694749</v>
       </c>
       <c r="I8" t="n">
-        <v>101.57656928</v>
+        <v>101.69009204</v>
       </c>
       <c r="J8" t="n">
-        <v>104.46139859</v>
+        <v>105.14717259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97.98111778000001</v>
+        <v>97.73979885999999</v>
       </c>
       <c r="C9" t="n">
-        <v>102.2518225</v>
+        <v>101.18574021</v>
       </c>
       <c r="D9" t="n">
-        <v>103.96871269</v>
+        <v>103.47261812</v>
       </c>
       <c r="E9" t="n">
-        <v>101.9936983</v>
+        <v>102.15652561</v>
       </c>
       <c r="F9" t="n">
-        <v>101.80679542</v>
+        <v>101.76138222</v>
       </c>
       <c r="G9" t="n">
-        <v>101.21706885</v>
+        <v>101.12434058</v>
       </c>
       <c r="H9" t="n">
-        <v>100.58268185</v>
+        <v>100.5834778</v>
       </c>
       <c r="I9" t="n">
-        <v>101.54201955</v>
+        <v>101.65832906</v>
       </c>
       <c r="J9" t="n">
-        <v>104.08106282</v>
+        <v>105.01690272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.15845025</v>
+        <v>97.80267073</v>
       </c>
       <c r="C10" t="n">
-        <v>102.521950799999</v>
+        <v>101.44849517</v>
       </c>
       <c r="D10" t="n">
-        <v>104.094702499999</v>
+        <v>103.61556299</v>
       </c>
       <c r="E10" t="n">
-        <v>101.9962766</v>
+        <v>102.11186795</v>
       </c>
       <c r="F10" t="n">
-        <v>101.803898399999</v>
+        <v>101.79356754</v>
       </c>
       <c r="G10" t="n">
-        <v>101.2925443</v>
+        <v>101.15503359</v>
       </c>
       <c r="H10" t="n">
-        <v>100.557121899999</v>
+        <v>100.59467507</v>
       </c>
       <c r="I10" t="n">
-        <v>101.515328299999</v>
+        <v>101.61403125</v>
       </c>
       <c r="J10" t="n">
-        <v>103.9338611</v>
+        <v>104.75315322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.2972451499999</v>
+        <v>97.88002914</v>
       </c>
       <c r="C11" t="n">
-        <v>102.6394956</v>
+        <v>101.9001256</v>
       </c>
       <c r="D11" t="n">
-        <v>104.245761299999</v>
+        <v>103.81156702</v>
       </c>
       <c r="E11" t="n">
-        <v>102.015254299999</v>
+        <v>102.07272134</v>
       </c>
       <c r="F11" t="n">
-        <v>101.818668</v>
+        <v>101.81285901</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3623168</v>
+        <v>101.21314497</v>
       </c>
       <c r="H11" t="n">
-        <v>100.545635</v>
+        <v>100.60074622</v>
       </c>
       <c r="I11" t="n">
-        <v>101.502878899999</v>
+        <v>101.57656928</v>
       </c>
       <c r="J11" t="n">
-        <v>103.8545655</v>
+        <v>104.46139859</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.44737838</v>
+        <v>97.98111778000001</v>
       </c>
       <c r="C12" t="n">
-        <v>102.8042272</v>
+        <v>102.2518225</v>
       </c>
       <c r="D12" t="n">
-        <v>104.3080068</v>
+        <v>103.96871269</v>
       </c>
       <c r="E12" t="n">
-        <v>102.0436486</v>
+        <v>101.9936983</v>
       </c>
       <c r="F12" t="n">
-        <v>101.8485726</v>
+        <v>101.80679542</v>
       </c>
       <c r="G12" t="n">
-        <v>101.4366006</v>
+        <v>101.21706885</v>
       </c>
       <c r="H12" t="n">
-        <v>100.5301627</v>
+        <v>100.58268185</v>
       </c>
       <c r="I12" t="n">
-        <v>101.4951368</v>
+        <v>101.54201955</v>
       </c>
       <c r="J12" t="n">
-        <v>103.805077</v>
+        <v>104.08106282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.64702635</v>
+        <v>98.15845025</v>
       </c>
       <c r="C13" t="n">
-        <v>102.9134558</v>
+        <v>102.521950799999</v>
       </c>
       <c r="D13" t="n">
-        <v>104.3894397</v>
+        <v>104.094702499999</v>
       </c>
       <c r="E13" t="n">
-        <v>102.0517452</v>
+        <v>101.9962766</v>
       </c>
       <c r="F13" t="n">
-        <v>101.8756571</v>
+        <v>101.803898399999</v>
       </c>
       <c r="G13" t="n">
-        <v>101.5099426</v>
+        <v>101.2925443</v>
       </c>
       <c r="H13" t="n">
-        <v>100.5228999</v>
+        <v>100.557121899999</v>
       </c>
       <c r="I13" t="n">
-        <v>101.45795</v>
+        <v>101.515328299999</v>
       </c>
       <c r="J13" t="n">
-        <v>103.6735114</v>
+        <v>103.9338611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.2936047</v>
+        <v>101.0069875</v>
       </c>
       <c r="C14" t="n">
-        <v>104.8813294</v>
+        <v>102.5830032</v>
       </c>
       <c r="D14" t="n">
-        <v>105.740097</v>
+        <v>106.6204083</v>
       </c>
       <c r="E14" t="n">
-        <v>102.6490547</v>
+        <v>101.6173494</v>
       </c>
       <c r="F14" t="n">
-        <v>102.3266064</v>
+        <v>102.5148555</v>
       </c>
       <c r="G14" t="n">
-        <v>103.6111491</v>
+        <v>102.5000096</v>
       </c>
       <c r="H14" t="n">
-        <v>100.6303016</v>
+        <v>100.9476246</v>
       </c>
       <c r="I14" t="n">
-        <v>100.9813719</v>
+        <v>101.2607896</v>
       </c>
       <c r="J14" t="n">
-        <v>102.5432892</v>
+        <v>99.75530668</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.9150858</v>
+        <v>101.0275693</v>
       </c>
       <c r="C15" t="n">
-        <v>104.06097987</v>
+        <v>102.5007554</v>
       </c>
       <c r="D15" t="n">
-        <v>105.8127061</v>
+        <v>106.7349267</v>
       </c>
       <c r="E15" t="n">
-        <v>101.75590158</v>
+        <v>101.6340216</v>
       </c>
       <c r="F15" t="n">
-        <v>102.48618582</v>
+        <v>102.5289827</v>
       </c>
       <c r="G15" t="n">
-        <v>102.61799637</v>
+        <v>102.4558307</v>
       </c>
       <c r="H15" t="n">
-        <v>100.52850794</v>
+        <v>100.9957398</v>
       </c>
       <c r="I15" t="n">
-        <v>101.08239209</v>
+        <v>101.2439984</v>
       </c>
       <c r="J15" t="n">
-        <v>100.05322559</v>
+        <v>99.78080215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.9230941</v>
+        <v>101.0338072</v>
       </c>
       <c r="C16" t="n">
-        <v>103.6776327</v>
+        <v>102.4541797</v>
       </c>
       <c r="D16" t="n">
-        <v>105.8950554</v>
+        <v>106.7880134</v>
       </c>
       <c r="E16" t="n">
-        <v>101.506097</v>
+        <v>101.6566241</v>
       </c>
       <c r="F16" t="n">
-        <v>102.4934533</v>
+        <v>102.5372101</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5244922</v>
+        <v>102.4209718</v>
       </c>
       <c r="H16" t="n">
-        <v>100.5660482</v>
+        <v>101.0392007</v>
       </c>
       <c r="I16" t="n">
-        <v>101.1401744</v>
+        <v>101.2428067</v>
       </c>
       <c r="J16" t="n">
-        <v>99.25238890999999</v>
+        <v>99.84143066999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.8759983</v>
+        <v>102.2936047</v>
       </c>
       <c r="C17" t="n">
-        <v>103.6450408</v>
+        <v>104.8813294</v>
       </c>
       <c r="D17" t="n">
-        <v>106.0347435</v>
+        <v>105.740097</v>
       </c>
       <c r="E17" t="n">
-        <v>101.4526199</v>
+        <v>102.6490547</v>
       </c>
       <c r="F17" t="n">
-        <v>102.4815899</v>
+        <v>102.3266064</v>
       </c>
       <c r="G17" t="n">
-        <v>102.5531452</v>
+        <v>103.6111491</v>
       </c>
       <c r="H17" t="n">
-        <v>100.6271025</v>
+        <v>100.6303016</v>
       </c>
       <c r="I17" t="n">
-        <v>101.1849271</v>
+        <v>100.9813719</v>
       </c>
       <c r="J17" t="n">
-        <v>99.03164756</v>
+        <v>102.5432892</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.7131434</v>
+        <v>101.9150858</v>
       </c>
       <c r="C18" t="n">
-        <v>103.4886217</v>
+        <v>104.06097987</v>
       </c>
       <c r="D18" t="n">
-        <v>106.1384864</v>
+        <v>105.8127061</v>
       </c>
       <c r="E18" t="n">
-        <v>101.4943201</v>
+        <v>101.75590158</v>
       </c>
       <c r="F18" t="n">
-        <v>102.4753943</v>
+        <v>102.48618582</v>
       </c>
       <c r="G18" t="n">
-        <v>102.5628665</v>
+        <v>102.61799637</v>
       </c>
       <c r="H18" t="n">
-        <v>100.6976689</v>
+        <v>100.52850794</v>
       </c>
       <c r="I18" t="n">
-        <v>101.215454</v>
+        <v>101.08239209</v>
       </c>
       <c r="J18" t="n">
-        <v>99.19219423</v>
+        <v>100.05322559</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.4417733</v>
+        <v>101.9230941</v>
       </c>
       <c r="C19" t="n">
-        <v>103.3714754</v>
+        <v>103.6776327</v>
       </c>
       <c r="D19" t="n">
-        <v>106.1733176</v>
+        <v>105.8950554</v>
       </c>
       <c r="E19" t="n">
-        <v>101.5227547</v>
+        <v>101.506097</v>
       </c>
       <c r="F19" t="n">
-        <v>102.4782881</v>
+        <v>102.4934533</v>
       </c>
       <c r="G19" t="n">
-        <v>102.5567734</v>
+        <v>102.5244922</v>
       </c>
       <c r="H19" t="n">
-        <v>100.7543145</v>
+        <v>100.5660482</v>
       </c>
       <c r="I19" t="n">
-        <v>101.2555401</v>
+        <v>101.1401744</v>
       </c>
       <c r="J19" t="n">
-        <v>99.36429439</v>
+        <v>99.25238890999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.1907468</v>
+        <v>101.8759983</v>
       </c>
       <c r="C20" t="n">
-        <v>103.0597047</v>
+        <v>103.6450408</v>
       </c>
       <c r="D20" t="n">
-        <v>106.1370117</v>
+        <v>106.0347435</v>
       </c>
       <c r="E20" t="n">
-        <v>101.5228388</v>
+        <v>101.4526199</v>
       </c>
       <c r="F20" t="n">
-        <v>102.4707497</v>
+        <v>102.4815899</v>
       </c>
       <c r="G20" t="n">
-        <v>102.547296</v>
+        <v>102.5531452</v>
       </c>
       <c r="H20" t="n">
-        <v>100.800697</v>
+        <v>100.6271025</v>
       </c>
       <c r="I20" t="n">
-        <v>101.2825072</v>
+        <v>101.1849271</v>
       </c>
       <c r="J20" t="n">
-        <v>99.48820489000001</v>
+        <v>99.03164756</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.1217462</v>
+        <v>101.7131434</v>
       </c>
       <c r="C21" t="n">
-        <v>102.8416413</v>
+        <v>103.4886217</v>
       </c>
       <c r="D21" t="n">
-        <v>106.1844516</v>
+        <v>106.1384864</v>
       </c>
       <c r="E21" t="n">
-        <v>101.5646732</v>
+        <v>101.4943201</v>
       </c>
       <c r="F21" t="n">
-        <v>102.481853</v>
+        <v>102.4753943</v>
       </c>
       <c r="G21" t="n">
-        <v>102.5473396</v>
+        <v>102.5628665</v>
       </c>
       <c r="H21" t="n">
-        <v>100.847674</v>
+        <v>100.6976689</v>
       </c>
       <c r="I21" t="n">
-        <v>101.2771937</v>
+        <v>101.215454</v>
       </c>
       <c r="J21" t="n">
-        <v>99.64347900999999</v>
+        <v>99.19219423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.0423363</v>
+        <v>101.4417733</v>
       </c>
       <c r="C22" t="n">
-        <v>102.6739428</v>
+        <v>103.3714754</v>
       </c>
       <c r="D22" t="n">
-        <v>106.4518304</v>
+        <v>106.1733176</v>
       </c>
       <c r="E22" t="n">
-        <v>101.5817575</v>
+        <v>101.5227547</v>
       </c>
       <c r="F22" t="n">
-        <v>102.4959808</v>
+        <v>102.4782881</v>
       </c>
       <c r="G22" t="n">
-        <v>102.5234112</v>
+        <v>102.5567734</v>
       </c>
       <c r="H22" t="n">
-        <v>100.8976433</v>
+        <v>100.7543145</v>
       </c>
       <c r="I22" t="n">
-        <v>101.2736988</v>
+        <v>101.2555401</v>
       </c>
       <c r="J22" t="n">
-        <v>99.66996274</v>
+        <v>99.36429439</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>101.0069875</v>
+        <v>101.1907468</v>
       </c>
       <c r="C23" t="n">
-        <v>102.5830032</v>
+        <v>103.0597047</v>
       </c>
       <c r="D23" t="n">
-        <v>106.6204083</v>
+        <v>106.1370117</v>
       </c>
       <c r="E23" t="n">
-        <v>101.6173494</v>
+        <v>101.5228388</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5148555</v>
+        <v>102.4707497</v>
       </c>
       <c r="G23" t="n">
-        <v>102.5000096</v>
+        <v>102.547296</v>
       </c>
       <c r="H23" t="n">
-        <v>100.9476246</v>
+        <v>100.800697</v>
       </c>
       <c r="I23" t="n">
-        <v>101.2607896</v>
+        <v>101.2825072</v>
       </c>
       <c r="J23" t="n">
-        <v>99.75530668</v>
+        <v>99.48820489000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.0275693</v>
+        <v>101.1217462</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5007554</v>
+        <v>102.8416413</v>
       </c>
       <c r="D24" t="n">
-        <v>106.7349267</v>
+        <v>106.1844516</v>
       </c>
       <c r="E24" t="n">
-        <v>101.6340216</v>
+        <v>101.5646732</v>
       </c>
       <c r="F24" t="n">
-        <v>102.5289827</v>
+        <v>102.481853</v>
       </c>
       <c r="G24" t="n">
-        <v>102.4558307</v>
+        <v>102.5473396</v>
       </c>
       <c r="H24" t="n">
-        <v>100.9957398</v>
+        <v>100.847674</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2439984</v>
+        <v>101.2771937</v>
       </c>
       <c r="J24" t="n">
-        <v>99.78080215</v>
+        <v>99.64347900999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.0338072</v>
+        <v>101.0423363</v>
       </c>
       <c r="C25" t="n">
-        <v>102.4541797</v>
+        <v>102.6739428</v>
       </c>
       <c r="D25" t="n">
-        <v>106.7880134</v>
+        <v>106.4518304</v>
       </c>
       <c r="E25" t="n">
-        <v>101.6566241</v>
+        <v>101.5817575</v>
       </c>
       <c r="F25" t="n">
-        <v>102.5372101</v>
+        <v>102.4959808</v>
       </c>
       <c r="G25" t="n">
-        <v>102.4209718</v>
+        <v>102.5234112</v>
       </c>
       <c r="H25" t="n">
-        <v>101.0392007</v>
+        <v>100.8976433</v>
       </c>
       <c r="I25" t="n">
-        <v>101.2428067</v>
+        <v>101.2736988</v>
       </c>
       <c r="J25" t="n">
-        <v>99.84143066999999</v>
+        <v>99.66996274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.0850941</v>
+        <v>101.86444673</v>
       </c>
       <c r="C26" t="n">
-        <v>101.2419943</v>
+        <v>101.08837278</v>
       </c>
       <c r="D26" t="n">
-        <v>106.7008447</v>
+        <v>105.04685848</v>
       </c>
       <c r="E26" t="n">
-        <v>101.4723943</v>
+        <v>102.13790546</v>
       </c>
       <c r="F26" t="n">
-        <v>102.4903243</v>
+        <v>102.12502015</v>
       </c>
       <c r="G26" t="n">
-        <v>100.5999436</v>
+        <v>102.22407555</v>
       </c>
       <c r="H26" t="n">
-        <v>101.4211847</v>
+        <v>101.55428231</v>
       </c>
       <c r="I26" t="n">
-        <v>101.3001591</v>
+        <v>101.09752476</v>
       </c>
       <c r="J26" t="n">
-        <v>100.3942549</v>
+        <v>101.98602915</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.8195115</v>
+        <v>101.83754338</v>
       </c>
       <c r="C27" t="n">
-        <v>101.3754692</v>
+        <v>101.12993375</v>
       </c>
       <c r="D27" t="n">
-        <v>106.6261453</v>
+        <v>104.81258623</v>
       </c>
       <c r="E27" t="n">
-        <v>102.2174351</v>
+        <v>102.1399702</v>
       </c>
       <c r="F27" t="n">
-        <v>102.2323638</v>
+        <v>102.12341402</v>
       </c>
       <c r="G27" t="n">
-        <v>102.327378</v>
+        <v>102.25354796</v>
       </c>
       <c r="H27" t="n">
-        <v>101.6204119</v>
+        <v>101.55398049</v>
       </c>
       <c r="I27" t="n">
-        <v>101.0909266</v>
+        <v>101.1141694</v>
       </c>
       <c r="J27" t="n">
-        <v>102.1347091</v>
+        <v>102.04445088</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.6407384</v>
+        <v>101.61790383</v>
       </c>
       <c r="C28" t="n">
-        <v>101.2915727</v>
+        <v>101.17403689</v>
       </c>
       <c r="D28" t="n">
-        <v>106.5091997</v>
+        <v>104.61620099</v>
       </c>
       <c r="E28" t="n">
-        <v>102.1786092</v>
+        <v>102.11657388</v>
       </c>
       <c r="F28" t="n">
-        <v>102.1648212</v>
+        <v>102.11062305</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2705223</v>
+        <v>102.26757685</v>
       </c>
       <c r="H28" t="n">
-        <v>101.586843</v>
+        <v>101.55218558</v>
       </c>
       <c r="I28" t="n">
-        <v>101.0363261</v>
+        <v>101.14437813</v>
       </c>
       <c r="J28" t="n">
-        <v>102.2066782</v>
+        <v>102.09600852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.7529211</v>
+        <v>100.0850941</v>
       </c>
       <c r="C29" t="n">
-        <v>101.1712678</v>
+        <v>101.2419943</v>
       </c>
       <c r="D29" t="n">
-        <v>106.2953317</v>
+        <v>106.7008447</v>
       </c>
       <c r="E29" t="n">
-        <v>102.1</v>
+        <v>101.4723943</v>
       </c>
       <c r="F29" t="n">
-        <v>102.1141297</v>
+        <v>102.4903243</v>
       </c>
       <c r="G29" t="n">
-        <v>102.2036458</v>
+        <v>100.5999436</v>
       </c>
       <c r="H29" t="n">
-        <v>101.5537277</v>
+        <v>101.4211847</v>
       </c>
       <c r="I29" t="n">
-        <v>101.013552</v>
+        <v>101.3001591</v>
       </c>
       <c r="J29" t="n">
-        <v>102.0154274</v>
+        <v>100.3942549</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.9531264</v>
+        <v>100.8195115</v>
       </c>
       <c r="C30" t="n">
-        <v>101.1223279</v>
+        <v>101.3754692</v>
       </c>
       <c r="D30" t="n">
-        <v>106.1334329</v>
+        <v>106.6261453</v>
       </c>
       <c r="E30" t="n">
-        <v>102</v>
+        <v>102.2174351</v>
       </c>
       <c r="F30" t="n">
-        <v>102.0797811</v>
+        <v>102.2323638</v>
       </c>
       <c r="G30" t="n">
-        <v>102.1352827</v>
+        <v>102.327378</v>
       </c>
       <c r="H30" t="n">
-        <v>101.5281757</v>
+        <v>101.6204119</v>
       </c>
       <c r="I30" t="n">
-        <v>101.0148844</v>
+        <v>101.0909266</v>
       </c>
       <c r="J30" t="n">
-        <v>101.8138409</v>
+        <v>102.1347091</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.18568818</v>
+        <v>100.6407384</v>
       </c>
       <c r="C31" t="n">
-        <v>101.07530555</v>
+        <v>101.2915727</v>
       </c>
       <c r="D31" t="n">
-        <v>106.00230321</v>
+        <v>106.5091997</v>
       </c>
       <c r="E31" t="n">
-        <v>101.99855352</v>
+        <v>102.1786092</v>
       </c>
       <c r="F31" t="n">
-        <v>102.06094159</v>
+        <v>102.1648212</v>
       </c>
       <c r="G31" t="n">
-        <v>102.07476882</v>
+        <v>102.2705223</v>
       </c>
       <c r="H31" t="n">
-        <v>101.52050152</v>
+        <v>101.586843</v>
       </c>
       <c r="I31" t="n">
-        <v>101.01399994</v>
+        <v>101.0363261</v>
       </c>
       <c r="J31" t="n">
-        <v>101.68976005</v>
+        <v>102.2066782</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.44043415</v>
+        <v>100.7529211</v>
       </c>
       <c r="C32" t="n">
-        <v>101.10107154</v>
+        <v>101.1712678</v>
       </c>
       <c r="D32" t="n">
-        <v>105.86163974</v>
+        <v>106.2953317</v>
       </c>
       <c r="E32" t="n">
-        <v>102.0098776</v>
+        <v>102.1</v>
       </c>
       <c r="F32" t="n">
-        <v>102.06664668</v>
+        <v>102.1141297</v>
       </c>
       <c r="G32" t="n">
-        <v>102.11883061</v>
+        <v>102.2036458</v>
       </c>
       <c r="H32" t="n">
-        <v>101.52590158</v>
+        <v>101.5537277</v>
       </c>
       <c r="I32" t="n">
-        <v>101.02717133</v>
+        <v>101.013552</v>
       </c>
       <c r="J32" t="n">
-        <v>101.62742764</v>
+        <v>102.0154274</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>101.58999279</v>
+        <v>100.9531264</v>
       </c>
       <c r="C33" t="n">
-        <v>101.11016728</v>
+        <v>101.1223279</v>
       </c>
       <c r="D33" t="n">
-        <v>105.695503</v>
+        <v>106.1334329</v>
       </c>
       <c r="E33" t="n">
-        <v>102.04806138</v>
+        <v>102</v>
       </c>
       <c r="F33" t="n">
-        <v>102.08794465</v>
+        <v>102.0797811</v>
       </c>
       <c r="G33" t="n">
-        <v>102.19183921</v>
+        <v>102.1352827</v>
       </c>
       <c r="H33" t="n">
-        <v>101.53623465</v>
+        <v>101.5281757</v>
       </c>
       <c r="I33" t="n">
-        <v>101.05660197</v>
+        <v>101.0148844</v>
       </c>
       <c r="J33" t="n">
-        <v>101.68030398</v>
+        <v>101.8138409</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.71780847</v>
+        <v>101.18568818</v>
       </c>
       <c r="C34" t="n">
-        <v>101.06449639</v>
+        <v>101.07530555</v>
       </c>
       <c r="D34" t="n">
-        <v>105.33611462</v>
+        <v>106.00230321</v>
       </c>
       <c r="E34" t="n">
-        <v>102.09297693</v>
+        <v>101.99855352</v>
       </c>
       <c r="F34" t="n">
-        <v>102.11143334</v>
+        <v>102.06094159</v>
       </c>
       <c r="G34" t="n">
-        <v>102.18725598</v>
+        <v>102.07476882</v>
       </c>
       <c r="H34" t="n">
-        <v>101.55151883</v>
+        <v>101.52050152</v>
       </c>
       <c r="I34" t="n">
-        <v>101.06423272</v>
+        <v>101.01399994</v>
       </c>
       <c r="J34" t="n">
-        <v>101.856148</v>
+        <v>101.68976005</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101.86444673</v>
+        <v>101.44043415</v>
       </c>
       <c r="C35" t="n">
-        <v>101.08837278</v>
+        <v>101.10107154</v>
       </c>
       <c r="D35" t="n">
-        <v>105.04685848</v>
+        <v>105.86163974</v>
       </c>
       <c r="E35" t="n">
-        <v>102.13790546</v>
+        <v>102.0098776</v>
       </c>
       <c r="F35" t="n">
-        <v>102.12502015</v>
+        <v>102.06664668</v>
       </c>
       <c r="G35" t="n">
-        <v>102.22407555</v>
+        <v>102.11883061</v>
       </c>
       <c r="H35" t="n">
-        <v>101.55428231</v>
+        <v>101.52590158</v>
       </c>
       <c r="I35" t="n">
-        <v>101.09752476</v>
+        <v>101.02717133</v>
       </c>
       <c r="J35" t="n">
-        <v>101.98602915</v>
+        <v>101.62742764</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.83754338</v>
+        <v>101.58999279</v>
       </c>
       <c r="C36" t="n">
-        <v>101.12993375</v>
+        <v>101.11016728</v>
       </c>
       <c r="D36" t="n">
-        <v>104.81258623</v>
+        <v>105.695503</v>
       </c>
       <c r="E36" t="n">
-        <v>102.1399702</v>
+        <v>102.04806138</v>
       </c>
       <c r="F36" t="n">
-        <v>102.12341402</v>
+        <v>102.08794465</v>
       </c>
       <c r="G36" t="n">
-        <v>102.25354796</v>
+        <v>102.19183921</v>
       </c>
       <c r="H36" t="n">
-        <v>101.55398049</v>
+        <v>101.53623465</v>
       </c>
       <c r="I36" t="n">
-        <v>101.1141694</v>
+        <v>101.05660197</v>
       </c>
       <c r="J36" t="n">
-        <v>102.04445088</v>
+        <v>101.68030398</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.61790383</v>
+        <v>101.71780847</v>
       </c>
       <c r="C37" t="n">
-        <v>101.17403689</v>
+        <v>101.06449639</v>
       </c>
       <c r="D37" t="n">
-        <v>104.61620099</v>
+        <v>105.33611462</v>
       </c>
       <c r="E37" t="n">
-        <v>102.11657388</v>
+        <v>102.09297693</v>
       </c>
       <c r="F37" t="n">
-        <v>102.11062305</v>
+        <v>102.11143334</v>
       </c>
       <c r="G37" t="n">
-        <v>102.26757685</v>
+        <v>102.18725598</v>
       </c>
       <c r="H37" t="n">
-        <v>101.55218558</v>
+        <v>101.55151883</v>
       </c>
       <c r="I37" t="n">
-        <v>101.14437813</v>
+        <v>101.06423272</v>
       </c>
       <c r="J37" t="n">
-        <v>102.09600852</v>
+        <v>101.856148</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.67510761</v>
+        <v>98.24997887000001</v>
       </c>
       <c r="C38" t="n">
-        <v>102.22734757</v>
+        <v>103.32027847</v>
       </c>
       <c r="D38" t="n">
-        <v>102.66627046</v>
+        <v>102.59869081</v>
       </c>
       <c r="E38" t="n">
-        <v>101.76377858</v>
+        <v>102.52568853</v>
       </c>
       <c r="F38" t="n">
-        <v>101.83615665</v>
+        <v>101.47495375</v>
       </c>
       <c r="G38" t="n">
-        <v>103.04570837</v>
+        <v>102.41545663</v>
       </c>
       <c r="H38" t="n">
-        <v>101.64037219</v>
+        <v>100.99041055</v>
       </c>
       <c r="I38" t="n">
-        <v>101.60047564</v>
+        <v>101.78665349</v>
       </c>
       <c r="J38" t="n">
-        <v>102.23464488</v>
+        <v>105.53222594</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.68193598000001</v>
+        <v>98.1488968</v>
       </c>
       <c r="C39" t="n">
-        <v>102.1415577</v>
+        <v>103.43716341</v>
       </c>
       <c r="D39" t="n">
-        <v>102.71619087</v>
+        <v>102.55802054</v>
       </c>
       <c r="E39" t="n">
-        <v>101.64061737</v>
+        <v>102.67617428</v>
       </c>
       <c r="F39" t="n">
-        <v>101.93411003</v>
+        <v>101.38546967</v>
       </c>
       <c r="G39" t="n">
-        <v>102.71098764</v>
+        <v>102.36201689</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4959277</v>
+        <v>100.9369419</v>
       </c>
       <c r="I39" t="n">
-        <v>101.80395672</v>
+        <v>101.73877225</v>
       </c>
       <c r="J39" t="n">
-        <v>101.83751654</v>
+        <v>106.20289734</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.10998159</v>
+        <v>98.23407226</v>
       </c>
       <c r="C40" t="n">
-        <v>102.08965739</v>
+        <v>103.52709975</v>
       </c>
       <c r="D40" t="n">
-        <v>102.71086556</v>
+        <v>102.52686594</v>
       </c>
       <c r="E40" t="n">
-        <v>101.85448968</v>
+        <v>102.80168131</v>
       </c>
       <c r="F40" t="n">
-        <v>101.91799004</v>
+        <v>101.31817703</v>
       </c>
       <c r="G40" t="n">
-        <v>102.64482248</v>
+        <v>102.32427807</v>
       </c>
       <c r="H40" t="n">
-        <v>101.41095359</v>
+        <v>100.88759474</v>
       </c>
       <c r="I40" t="n">
-        <v>101.88180176</v>
+        <v>101.67401914</v>
       </c>
       <c r="J40" t="n">
-        <v>102.42850236</v>
+        <v>106.68729755</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.1782868</v>
+        <v>98.67510761</v>
       </c>
       <c r="C41" t="n">
-        <v>102.05263282</v>
+        <v>102.22734757</v>
       </c>
       <c r="D41" t="n">
-        <v>102.68491066</v>
+        <v>102.66627046</v>
       </c>
       <c r="E41" t="n">
-        <v>102.01676336</v>
+        <v>101.76377858</v>
       </c>
       <c r="F41" t="n">
-        <v>101.90241624</v>
+        <v>101.83615665</v>
       </c>
       <c r="G41" t="n">
-        <v>102.64370634</v>
+        <v>103.04570837</v>
       </c>
       <c r="H41" t="n">
-        <v>101.34633269</v>
+        <v>101.64037219</v>
       </c>
       <c r="I41" t="n">
-        <v>101.88242828</v>
+        <v>101.60047564</v>
       </c>
       <c r="J41" t="n">
-        <v>102.99186258</v>
+        <v>102.23464488</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.14434632</v>
+        <v>98.68193598000001</v>
       </c>
       <c r="C42" t="n">
-        <v>102.07571368</v>
+        <v>102.1415577</v>
       </c>
       <c r="D42" t="n">
-        <v>102.6577063</v>
+        <v>102.71619087</v>
       </c>
       <c r="E42" t="n">
-        <v>102.15544738</v>
+        <v>101.64061737</v>
       </c>
       <c r="F42" t="n">
-        <v>101.86707168</v>
+        <v>101.93411003</v>
       </c>
       <c r="G42" t="n">
-        <v>102.66124001</v>
+        <v>102.71098764</v>
       </c>
       <c r="H42" t="n">
-        <v>101.28025508</v>
+        <v>101.4959277</v>
       </c>
       <c r="I42" t="n">
-        <v>101.8671993</v>
+        <v>101.80395672</v>
       </c>
       <c r="J42" t="n">
-        <v>103.52667473</v>
+        <v>101.83751654</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.95548284</v>
+        <v>99.10998159</v>
       </c>
       <c r="C43" t="n">
-        <v>102.19823947</v>
+        <v>102.08965739</v>
       </c>
       <c r="D43" t="n">
-        <v>102.66311786</v>
+        <v>102.71086556</v>
       </c>
       <c r="E43" t="n">
-        <v>102.24028499</v>
+        <v>101.85448968</v>
       </c>
       <c r="F43" t="n">
-        <v>101.81641008</v>
+        <v>101.91799004</v>
       </c>
       <c r="G43" t="n">
-        <v>102.63793997</v>
+        <v>102.64482248</v>
       </c>
       <c r="H43" t="n">
-        <v>101.20566145</v>
+        <v>101.41095359</v>
       </c>
       <c r="I43" t="n">
-        <v>101.87222384</v>
+        <v>101.88180176</v>
       </c>
       <c r="J43" t="n">
-        <v>103.94749241</v>
+        <v>102.42850236</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.78615885000001</v>
+        <v>99.1782868</v>
       </c>
       <c r="C44" t="n">
-        <v>102.37873549</v>
+        <v>102.05263282</v>
       </c>
       <c r="D44" t="n">
-        <v>102.68406991</v>
+        <v>102.68491066</v>
       </c>
       <c r="E44" t="n">
-        <v>102.3115793</v>
+        <v>102.01676336</v>
       </c>
       <c r="F44" t="n">
-        <v>101.76169798</v>
+        <v>101.90241624</v>
       </c>
       <c r="G44" t="n">
-        <v>102.59437066</v>
+        <v>102.64370634</v>
       </c>
       <c r="H44" t="n">
-        <v>101.15243627</v>
+        <v>101.34633269</v>
       </c>
       <c r="I44" t="n">
-        <v>101.86993075</v>
+        <v>101.88242828</v>
       </c>
       <c r="J44" t="n">
-        <v>104.31238622</v>
+        <v>102.99186258</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.63704686</v>
+        <v>99.14434632</v>
       </c>
       <c r="C45" t="n">
-        <v>102.68453478</v>
+        <v>102.07571368</v>
       </c>
       <c r="D45" t="n">
-        <v>102.66686726</v>
+        <v>102.6577063</v>
       </c>
       <c r="E45" t="n">
-        <v>102.36687538</v>
+        <v>102.15544738</v>
       </c>
       <c r="F45" t="n">
-        <v>101.67543431</v>
+        <v>101.86707168</v>
       </c>
       <c r="G45" t="n">
-        <v>102.5423428</v>
+        <v>102.66124001</v>
       </c>
       <c r="H45" t="n">
-        <v>101.09506334</v>
+        <v>101.28025508</v>
       </c>
       <c r="I45" t="n">
-        <v>101.84843205</v>
+        <v>101.8671993</v>
       </c>
       <c r="J45" t="n">
-        <v>104.63995392</v>
+        <v>103.52667473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.45209895000001</v>
+        <v>98.95548284</v>
       </c>
       <c r="C46" t="n">
-        <v>103.05280455</v>
+        <v>102.19823947</v>
       </c>
       <c r="D46" t="n">
-        <v>102.63485646</v>
+        <v>102.66311786</v>
       </c>
       <c r="E46" t="n">
-        <v>102.41906477</v>
+        <v>102.24028499</v>
       </c>
       <c r="F46" t="n">
-        <v>101.57308177</v>
+        <v>101.81641008</v>
       </c>
       <c r="G46" t="n">
-        <v>102.45974317</v>
+        <v>102.63793997</v>
       </c>
       <c r="H46" t="n">
-        <v>101.03595996</v>
+        <v>101.20566145</v>
       </c>
       <c r="I46" t="n">
-        <v>101.84059162</v>
+        <v>101.87222384</v>
       </c>
       <c r="J46" t="n">
-        <v>104.98637604</v>
+        <v>103.94749241</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.24997887000001</v>
+        <v>98.78615885000001</v>
       </c>
       <c r="C47" t="n">
-        <v>103.32027847</v>
+        <v>102.37873549</v>
       </c>
       <c r="D47" t="n">
-        <v>102.59869081</v>
+        <v>102.68406991</v>
       </c>
       <c r="E47" t="n">
-        <v>102.52568853</v>
+        <v>102.3115793</v>
       </c>
       <c r="F47" t="n">
-        <v>101.47495375</v>
+        <v>101.76169798</v>
       </c>
       <c r="G47" t="n">
-        <v>102.41545663</v>
+        <v>102.59437066</v>
       </c>
       <c r="H47" t="n">
-        <v>100.99041055</v>
+        <v>101.15243627</v>
       </c>
       <c r="I47" t="n">
-        <v>101.78665349</v>
+        <v>101.86993075</v>
       </c>
       <c r="J47" t="n">
-        <v>105.53222594</v>
+        <v>104.31238622</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98.1488968</v>
+        <v>98.63704686</v>
       </c>
       <c r="C48" t="n">
-        <v>103.43716341</v>
+        <v>102.68453478</v>
       </c>
       <c r="D48" t="n">
-        <v>102.55802054</v>
+        <v>102.66686726</v>
       </c>
       <c r="E48" t="n">
-        <v>102.67617428</v>
+        <v>102.36687538</v>
       </c>
       <c r="F48" t="n">
-        <v>101.38546967</v>
+        <v>101.67543431</v>
       </c>
       <c r="G48" t="n">
-        <v>102.36201689</v>
+        <v>102.5423428</v>
       </c>
       <c r="H48" t="n">
-        <v>100.9369419</v>
+        <v>101.09506334</v>
       </c>
       <c r="I48" t="n">
-        <v>101.73877225</v>
+        <v>101.84843205</v>
       </c>
       <c r="J48" t="n">
-        <v>106.20289734</v>
+        <v>104.63995392</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>98.23407226</v>
+        <v>98.45209895000001</v>
       </c>
       <c r="C49" t="n">
-        <v>103.52709975</v>
+        <v>103.05280455</v>
       </c>
       <c r="D49" t="n">
-        <v>102.52686594</v>
+        <v>102.63485646</v>
       </c>
       <c r="E49" t="n">
-        <v>102.80168131</v>
+        <v>102.41906477</v>
       </c>
       <c r="F49" t="n">
-        <v>101.31817703</v>
+        <v>101.57308177</v>
       </c>
       <c r="G49" t="n">
-        <v>102.32427807</v>
+        <v>102.45974317</v>
       </c>
       <c r="H49" t="n">
-        <v>100.88759474</v>
+        <v>101.03595996</v>
       </c>
       <c r="I49" t="n">
-        <v>101.67401914</v>
+        <v>101.84059162</v>
       </c>
       <c r="J49" t="n">
-        <v>106.68729755</v>
+        <v>104.98637604</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.81944853</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>104.95920322</v>
+        <v>104.8</v>
       </c>
       <c r="D50" t="n">
-        <v>102.41155116</v>
+        <v>101.8</v>
       </c>
       <c r="E50" t="n">
-        <v>105.09360886</v>
+        <v>102.8</v>
       </c>
       <c r="F50" t="n">
-        <v>100.56296843</v>
+        <v>99.7</v>
       </c>
       <c r="G50" t="n">
-        <v>102.45987668</v>
+        <v>101.5</v>
       </c>
       <c r="H50" t="n">
-        <v>100.22524899</v>
+        <v>100.1</v>
       </c>
       <c r="I50" t="n">
-        <v>100.67856029</v>
+        <v>99.8</v>
       </c>
       <c r="J50" t="n">
-        <v>114.15874358</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.56024082</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>104.77594041</v>
+        <v>104.6</v>
       </c>
       <c r="D51" t="n">
-        <v>102.33057943</v>
+        <v>101.8</v>
       </c>
       <c r="E51" t="n">
-        <v>104.95129233</v>
+        <v>102.5</v>
       </c>
       <c r="F51" t="n">
-        <v>100.43846034</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>101.69905215</v>
+        <v>101.4</v>
       </c>
       <c r="H51" t="n">
-        <v>100.1476417</v>
+        <v>100.1</v>
       </c>
       <c r="I51" t="n">
-        <v>100.62919026</v>
+        <v>99.8</v>
       </c>
       <c r="J51" t="n">
-        <v>114.54714912</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>98.39322524000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>105.01505552</v>
+        <v>104.4</v>
       </c>
       <c r="D52" t="n">
-        <v>102.30854722</v>
+        <v>101.7</v>
       </c>
       <c r="E52" t="n">
-        <v>104.61774055</v>
+        <v>102.3</v>
       </c>
       <c r="F52" t="n">
-        <v>100.27493688</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>102.09402329</v>
+        <v>101.4</v>
       </c>
       <c r="H52" t="n">
-        <v>100.20985146</v>
+        <v>100.1</v>
       </c>
       <c r="I52" t="n">
-        <v>100.32314104</v>
+        <v>99.8</v>
       </c>
       <c r="J52" t="n">
-        <v>113.87642719</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>97.51964058</v>
+        <v>100.81944853</v>
       </c>
       <c r="C53" t="n">
-        <v>104.97250893</v>
+        <v>104.95920322</v>
       </c>
       <c r="D53" t="n">
-        <v>102.3027838</v>
+        <v>102.41155116</v>
       </c>
       <c r="E53" t="n">
-        <v>104.22510954</v>
+        <v>105.09360886</v>
       </c>
       <c r="F53" t="n">
-        <v>100.14415073</v>
+        <v>100.56296843</v>
       </c>
       <c r="G53" t="n">
-        <v>102.12959203</v>
+        <v>102.45987668</v>
       </c>
       <c r="H53" t="n">
-        <v>100.19829755</v>
+        <v>100.22524899</v>
       </c>
       <c r="I53" t="n">
-        <v>100.15529649</v>
+        <v>100.67856029</v>
       </c>
       <c r="J53" t="n">
-        <v>113.02788841</v>
+        <v>114.15874358</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>96.97787778999999</v>
+        <v>99.56024082</v>
       </c>
       <c r="C54" t="n">
-        <v>105.04610068</v>
+        <v>104.77594041</v>
       </c>
       <c r="D54" t="n">
-        <v>102.25162548</v>
+        <v>102.33057943</v>
       </c>
       <c r="E54" t="n">
-        <v>103.83019783</v>
+        <v>104.95129233</v>
       </c>
       <c r="F54" t="n">
-        <v>100.044036</v>
+        <v>100.43846034</v>
       </c>
       <c r="G54" t="n">
-        <v>102.19845749</v>
+        <v>101.69905215</v>
       </c>
       <c r="H54" t="n">
-        <v>100.19124352</v>
+        <v>100.1476417</v>
       </c>
       <c r="I54" t="n">
-        <v>100.06418995</v>
+        <v>100.62919026</v>
       </c>
       <c r="J54" t="n">
-        <v>111.98239201</v>
+        <v>114.54714912</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>96.68888332</v>
+        <v>98.39322524000001</v>
       </c>
       <c r="C55" t="n">
-        <v>105.05866178</v>
+        <v>105.01505552</v>
       </c>
       <c r="D55" t="n">
-        <v>102.15986563</v>
+        <v>102.30854722</v>
       </c>
       <c r="E55" t="n">
-        <v>103.56609919</v>
+        <v>104.61774055</v>
       </c>
       <c r="F55" t="n">
-        <v>99.9418307</v>
+        <v>100.27493688</v>
       </c>
       <c r="G55" t="n">
-        <v>102.17985315</v>
+        <v>102.09402329</v>
       </c>
       <c r="H55" t="n">
-        <v>100.1761832</v>
+        <v>100.20985146</v>
       </c>
       <c r="I55" t="n">
-        <v>99.98628708</v>
+        <v>100.32314104</v>
       </c>
       <c r="J55" t="n">
-        <v>111.33162491</v>
+        <v>113.87642719</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>96.51035258</v>
+        <v>97.51964058</v>
       </c>
       <c r="C56" t="n">
-        <v>105.06930913</v>
+        <v>104.97250893</v>
       </c>
       <c r="D56" t="n">
-        <v>102.05329509</v>
+        <v>102.3027838</v>
       </c>
       <c r="E56" t="n">
-        <v>103.39499996</v>
+        <v>104.22510954</v>
       </c>
       <c r="F56" t="n">
-        <v>99.84594920000001</v>
+        <v>100.14415073</v>
       </c>
       <c r="G56" t="n">
-        <v>101.89058752</v>
+        <v>102.12959203</v>
       </c>
       <c r="H56" t="n">
-        <v>100.1511922</v>
+        <v>100.19829755</v>
       </c>
       <c r="I56" t="n">
-        <v>99.91225977000001</v>
+        <v>100.15529649</v>
       </c>
       <c r="J56" t="n">
-        <v>111.05493298</v>
+        <v>113.02788841</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>96.43903564</v>
+        <v>96.97787778999999</v>
       </c>
       <c r="C57" t="n">
-        <v>105.22319403</v>
+        <v>105.04610068</v>
       </c>
       <c r="D57" t="n">
-        <v>101.96106731</v>
+        <v>102.25162548</v>
       </c>
       <c r="E57" t="n">
-        <v>103.23455369</v>
+        <v>103.83019783</v>
       </c>
       <c r="F57" t="n">
-        <v>99.76916423999999</v>
+        <v>100.044036</v>
       </c>
       <c r="G57" t="n">
-        <v>101.62372112</v>
+        <v>102.19845749</v>
       </c>
       <c r="H57" t="n">
-        <v>100.13262965</v>
+        <v>100.19124352</v>
       </c>
       <c r="I57" t="n">
-        <v>99.86305589</v>
+        <v>100.06418995</v>
       </c>
       <c r="J57" t="n">
-        <v>110.70497551</v>
+        <v>111.98239201</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>96.42149646</v>
+        <v>96.68888332</v>
       </c>
       <c r="C58" t="n">
-        <v>105.10625275</v>
+        <v>105.05866178</v>
       </c>
       <c r="D58" t="n">
-        <v>101.88433277</v>
+        <v>102.15986563</v>
       </c>
       <c r="E58" t="n">
-        <v>103.05087188</v>
+        <v>103.56609919</v>
       </c>
       <c r="F58" t="n">
-        <v>99.70591659</v>
+        <v>99.9418307</v>
       </c>
       <c r="G58" t="n">
-        <v>101.50199715</v>
+        <v>102.17985315</v>
       </c>
       <c r="H58" t="n">
-        <v>100.10978527</v>
+        <v>100.1761832</v>
       </c>
       <c r="I58" t="n">
-        <v>99.83060868</v>
+        <v>99.98628708</v>
       </c>
       <c r="J58" t="n">
-        <v>110.19818821</v>
+        <v>111.33162491</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>96.40000000000001</v>
+        <v>96.51035258</v>
       </c>
       <c r="C59" t="n">
-        <v>104.8</v>
+        <v>105.06930913</v>
       </c>
       <c r="D59" t="n">
-        <v>101.8</v>
+        <v>102.05329509</v>
       </c>
       <c r="E59" t="n">
-        <v>102.8</v>
+        <v>103.39499996</v>
       </c>
       <c r="F59" t="n">
-        <v>99.7</v>
+        <v>99.84594920000001</v>
       </c>
       <c r="G59" t="n">
-        <v>101.5</v>
+        <v>101.89058752</v>
       </c>
       <c r="H59" t="n">
-        <v>100.1</v>
+        <v>100.1511922</v>
       </c>
       <c r="I59" t="n">
-        <v>99.8</v>
+        <v>99.91225977000001</v>
       </c>
       <c r="J59" t="n">
-        <v>109.4</v>
+        <v>111.05493298</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>96.40000000000001</v>
+        <v>96.43903564</v>
       </c>
       <c r="C60" t="n">
-        <v>104.6</v>
+        <v>105.22319403</v>
       </c>
       <c r="D60" t="n">
-        <v>101.8</v>
+        <v>101.96106731</v>
       </c>
       <c r="E60" t="n">
-        <v>102.5</v>
+        <v>103.23455369</v>
       </c>
       <c r="F60" t="n">
-        <v>99.59999999999999</v>
+        <v>99.76916423999999</v>
       </c>
       <c r="G60" t="n">
-        <v>101.4</v>
+        <v>101.62372112</v>
       </c>
       <c r="H60" t="n">
-        <v>100.1</v>
+        <v>100.13262965</v>
       </c>
       <c r="I60" t="n">
-        <v>99.8</v>
+        <v>99.86305589</v>
       </c>
       <c r="J60" t="n">
-        <v>108.5</v>
+        <v>110.70497551</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>96.40000000000001</v>
+        <v>96.42149646</v>
       </c>
       <c r="C61" t="n">
-        <v>104.4</v>
+        <v>105.10625275</v>
       </c>
       <c r="D61" t="n">
-        <v>101.7</v>
+        <v>101.88433277</v>
       </c>
       <c r="E61" t="n">
-        <v>102.3</v>
+        <v>103.05087188</v>
       </c>
       <c r="F61" t="n">
-        <v>99.59999999999999</v>
+        <v>99.70591659</v>
       </c>
       <c r="G61" t="n">
-        <v>101.4</v>
+        <v>101.50199715</v>
       </c>
       <c r="H61" t="n">
-        <v>100.1</v>
+        <v>100.10978527</v>
       </c>
       <c r="I61" t="n">
-        <v>99.8</v>
+        <v>99.83060868</v>
       </c>
       <c r="J61" t="n">
-        <v>107.8</v>
+        <v>110.19818821</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>95.09999999999999</v>
+        <v>103.8</v>
       </c>
       <c r="C62" t="n">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="D62" t="n">
         <v>100.3</v>
       </c>
       <c r="E62" t="n">
-        <v>99.59999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="F62" t="n">
-        <v>99.5</v>
+        <v>100.6</v>
       </c>
       <c r="G62" t="n">
-        <v>99.7</v>
+        <v>101.7</v>
       </c>
       <c r="H62" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="I62" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="J62" t="n">
-        <v>101.4</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>96.5</v>
+        <v>104.1</v>
       </c>
       <c r="C63" t="n">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="D63" t="n">
         <v>100.3</v>
       </c>
       <c r="E63" t="n">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="F63" t="n">
-        <v>99.59999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="G63" t="n">
-        <v>100.1</v>
+        <v>101.9</v>
       </c>
       <c r="H63" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="I63" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="J63" t="n">
-        <v>100.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>98.5</v>
+        <v>104.2</v>
       </c>
       <c r="C64" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E64" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F64" t="n">
-        <v>99.8</v>
+        <v>100.8</v>
       </c>
       <c r="G64" t="n">
-        <v>100.1</v>
+        <v>102</v>
       </c>
       <c r="H64" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="I64" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="J64" t="n">
-        <v>100.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="D65" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E65" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F65" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H65" t="n">
+        <v>100</v>
+      </c>
+      <c r="I65" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="G65" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="H65" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>100</v>
-      </c>
       <c r="J65" t="n">
-        <v>100.6</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>101.2</v>
+        <v>96.5</v>
       </c>
       <c r="C66" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="D66" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E66" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="F66" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G66" t="n">
         <v>100.1</v>
       </c>
-      <c r="G66" t="n">
-        <v>100.6</v>
-      </c>
       <c r="H66" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="J66" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>102</v>
+        <v>98.5</v>
       </c>
       <c r="C67" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D67" t="n">
         <v>100.2</v>
       </c>
       <c r="E67" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="G67" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="H67" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>102.7</v>
+        <v>100.1</v>
       </c>
       <c r="C68" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D68" t="n">
         <v>100.2</v>
       </c>
       <c r="E68" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G68" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H68" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>100</v>
+      </c>
+      <c r="J68" t="n">
         <v>100.6</v>
-      </c>
-      <c r="F68" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G68" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>100.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>103.1</v>
+        <v>101.2</v>
       </c>
       <c r="C69" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D69" t="n">
         <v>100.2</v>
       </c>
       <c r="E69" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="H69" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J69" t="n">
         <v>100.7</v>
-      </c>
-      <c r="F69" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G69" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="H69" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>100.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>103.4</v>
+        <v>102</v>
       </c>
       <c r="C70" t="n">
-        <v>98.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D70" t="n">
         <v>100.2</v>
       </c>
       <c r="E70" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="F70" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="G70" t="n">
-        <v>101.6</v>
+        <v>100.8</v>
       </c>
       <c r="H70" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I70" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="J70" t="n">
-        <v>99.8</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>103.8</v>
+        <v>102.7</v>
       </c>
       <c r="C71" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D71" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="F71" t="n">
         <v>100.3</v>
       </c>
-      <c r="E71" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="F71" t="n">
-        <v>100.6</v>
-      </c>
       <c r="G71" t="n">
-        <v>101.7</v>
+        <v>101.1</v>
       </c>
       <c r="H71" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J71" t="n">
         <v>100.3</v>
-      </c>
-      <c r="I71" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>99.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>104.1</v>
+        <v>103.1</v>
       </c>
       <c r="C72" t="n">
         <v>98.5</v>
       </c>
       <c r="D72" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E72" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="F72" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="G72" t="n">
-        <v>101.9</v>
+        <v>101.3</v>
       </c>
       <c r="H72" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I72" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="J72" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>104.2</v>
+        <v>103.4</v>
       </c>
       <c r="C73" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D73" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G73" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="H73" t="n">
         <v>100.3</v>
-      </c>
-      <c r="E73" t="n">
-        <v>101</v>
-      </c>
-      <c r="F73" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="G73" t="n">
-        <v>102</v>
-      </c>
-      <c r="H73" t="n">
-        <v>100.4</v>
       </c>
       <c r="I73" t="n">
         <v>100.3</v>
       </c>
       <c r="J73" t="n">
-        <v>100</v>
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="C74" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>102</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G74" t="n">
+        <v>102</v>
+      </c>
+      <c r="H74" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>102</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="G75" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="H75" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>102</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="H76" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J77" t="n">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="H78" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I78" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="H79" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="C80" t="n">
+        <v>101</v>
+      </c>
+      <c r="D80" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="H80" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="I80" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="F81" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="H81" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="I81" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E82" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>101</v>
+      </c>
+      <c r="G82" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>101</v>
+      </c>
+      <c r="I82" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E83" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="G83" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>101</v>
+      </c>
+      <c r="I83" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J83" t="n">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="G84" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>106</v>
+      </c>
+      <c r="C85" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>102</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="G85" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G86" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="I86" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="H87" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="I87" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G88" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H88" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="I88" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>103</v>
+      </c>
+      <c r="D89" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="E89" t="n">
+        <v>101</v>
+      </c>
+      <c r="F89" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G89" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H89" t="n">
+        <v>101</v>
+      </c>
+      <c r="I89" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H90" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="I90" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C91" t="n">
+        <v>103</v>
+      </c>
+      <c r="D91" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G91" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H91" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I91" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>101</v>
+      </c>
+      <c r="E92" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="F92" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G92" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="H92" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>101.7</v>
       </c>
     </row>
   </sheetData>
